--- a/data-raw/FAI SIC mapping.xlsx
+++ b/data-raw/FAI SIC mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cm1djm\Documents\GitLab Projects\SPECTRUM\Packages\tobalciomodel\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7396961-CD97-4536-839E-05A5D51553E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36BAEA3-CEA7-4205-BBB6-3656B4E1680F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{222DF0DF-BAD2-4434-9D09-4E510DB59431}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="1432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="1434">
   <si>
     <t>Industry</t>
   </si>
@@ -3710,9 +3710,6 @@
     <t>IOC</t>
   </si>
   <si>
-    <t>Product</t>
-  </si>
-  <si>
     <t>01</t>
   </si>
   <si>
@@ -4329,6 +4326,15 @@
   </si>
   <si>
     <t>Other Personal Service Activities  </t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activities of households as employers of domestic personnel </t>
+  </si>
+  <si>
+    <t>9700</t>
   </si>
 </sst>
 </file>
@@ -4748,10 +4754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D14F8F-F440-404C-AB84-00684509368E}">
-  <dimension ref="A1:D612"/>
+  <dimension ref="A1:D613"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A491" workbookViewId="0">
-      <selection activeCell="C497" sqref="C497:D499"/>
+    <sheetView tabSelected="1" topLeftCell="A593" workbookViewId="0">
+      <selection activeCell="D609" sqref="D609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4773,7 +4779,7 @@
         <v>1224</v>
       </c>
       <c r="D1" t="s">
-        <v>1225</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -4784,10 +4790,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>1226</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4798,10 +4804,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>1226</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -4812,10 +4818,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>1226</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4826,10 +4832,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>1226</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4840,10 +4846,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>1226</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4854,10 +4860,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>1226</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -4868,10 +4874,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>1226</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4882,10 +4888,10 @@
         <v>17</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>1226</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -4896,10 +4902,10 @@
         <v>19</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>1226</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -4910,10 +4916,10 @@
         <v>21</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>1226</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -4924,10 +4930,10 @@
         <v>23</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>1226</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -4938,10 +4944,10 @@
         <v>25</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>1226</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -4952,10 +4958,10 @@
         <v>27</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>1226</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4966,10 +4972,10 @@
         <v>29</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>1226</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -4980,10 +4986,10 @@
         <v>31</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>1226</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4994,10 +5000,10 @@
         <v>33</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>1226</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5008,10 +5014,10 @@
         <v>35</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>1226</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5022,10 +5028,10 @@
         <v>37</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>1226</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -5036,10 +5042,10 @@
         <v>39</v>
       </c>
       <c r="C20" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>1226</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -5050,10 +5056,10 @@
         <v>41</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>1226</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5064,10 +5070,10 @@
         <v>43</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>1226</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -5078,10 +5084,10 @@
         <v>45</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>1226</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5092,10 +5098,10 @@
         <v>47</v>
       </c>
       <c r="C24" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>1226</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5106,10 +5112,10 @@
         <v>49</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>1226</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -5120,10 +5126,10 @@
         <v>51</v>
       </c>
       <c r="C26" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>1226</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -5134,10 +5140,10 @@
         <v>53</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>1226</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -5148,10 +5154,10 @@
         <v>55</v>
       </c>
       <c r="C28" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>1226</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -5162,10 +5168,10 @@
         <v>57</v>
       </c>
       <c r="C29" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>1226</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -5176,10 +5182,10 @@
         <v>59</v>
       </c>
       <c r="C30" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>1226</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -5190,10 +5196,10 @@
         <v>61</v>
       </c>
       <c r="C31" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>1226</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -5204,10 +5210,10 @@
         <v>63</v>
       </c>
       <c r="C32" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>1226</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -5218,10 +5224,10 @@
         <v>65</v>
       </c>
       <c r="C33" s="8" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>1228</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>1229</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -5232,10 +5238,10 @@
         <v>67</v>
       </c>
       <c r="C34" s="8" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>1228</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>1229</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -5246,10 +5252,10 @@
         <v>69</v>
       </c>
       <c r="C35" s="8" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>1228</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>1229</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -5260,10 +5266,10 @@
         <v>71</v>
       </c>
       <c r="C36" s="8" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>1228</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>1229</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -5274,10 +5280,10 @@
         <v>73</v>
       </c>
       <c r="C37" s="8" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>1230</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -5288,10 +5294,10 @@
         <v>75</v>
       </c>
       <c r="C38" s="8" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>1230</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -5302,10 +5308,10 @@
         <v>77</v>
       </c>
       <c r="C39" s="8" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>1230</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -5316,10 +5322,10 @@
         <v>79</v>
       </c>
       <c r="C40" s="8" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>1230</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -5330,10 +5336,10 @@
         <v>81</v>
       </c>
       <c r="C41" s="8" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>1232</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>1233</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -5344,10 +5350,10 @@
         <v>83</v>
       </c>
       <c r="C42" s="8" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>1232</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>1233</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -5358,10 +5364,10 @@
         <v>85</v>
       </c>
       <c r="C43" s="8" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>1234</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>1235</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -5372,10 +5378,10 @@
         <v>87</v>
       </c>
       <c r="C44" s="8" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>1234</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>1235</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -5386,10 +5392,10 @@
         <v>89</v>
       </c>
       <c r="C45" s="8" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>1234</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>1235</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -5400,10 +5406,10 @@
         <v>91</v>
       </c>
       <c r="C46" s="8" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>1234</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>1235</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -5414,10 +5420,10 @@
         <v>93</v>
       </c>
       <c r="C47" s="8" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>1234</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>1235</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -5428,10 +5434,10 @@
         <v>95</v>
       </c>
       <c r="C48" s="8" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>1236</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -5442,10 +5448,10 @@
         <v>97</v>
       </c>
       <c r="C49" s="8" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>1236</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -5456,10 +5462,10 @@
         <v>99</v>
       </c>
       <c r="C50" s="8" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>1236</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -5470,10 +5476,10 @@
         <v>101</v>
       </c>
       <c r="C51" s="8" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>1236</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -5484,10 +5490,10 @@
         <v>103</v>
       </c>
       <c r="C52" s="8" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>1236</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -5498,10 +5504,10 @@
         <v>105</v>
       </c>
       <c r="C53" s="8" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D53" s="6" t="s">
         <v>1236</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -5512,10 +5518,10 @@
         <v>107</v>
       </c>
       <c r="C54" s="8" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>1238</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -5526,10 +5532,10 @@
         <v>109</v>
       </c>
       <c r="C55" s="8" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>1238</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -5540,10 +5546,10 @@
         <v>111</v>
       </c>
       <c r="C56" s="8" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>1240</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -5554,10 +5560,10 @@
         <v>113</v>
       </c>
       <c r="C57" s="8" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>1240</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -5568,10 +5574,10 @@
         <v>115</v>
       </c>
       <c r="C58" s="8" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>1240</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -5582,10 +5588,10 @@
         <v>117</v>
       </c>
       <c r="C59" s="8" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>1242</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -5596,10 +5602,10 @@
         <v>119</v>
       </c>
       <c r="C60" s="8" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>1242</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -5610,10 +5616,10 @@
         <v>121</v>
       </c>
       <c r="C61" s="8" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>1242</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -5624,10 +5630,10 @@
         <v>123</v>
       </c>
       <c r="C62" s="8" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>1242</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -5638,10 +5644,10 @@
         <v>125</v>
       </c>
       <c r="C63" s="8" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>1244</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>1245</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -5652,10 +5658,10 @@
         <v>127</v>
       </c>
       <c r="C64" s="8" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>1244</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>1245</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -5666,10 +5672,10 @@
         <v>129</v>
       </c>
       <c r="C65" s="8" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>1246</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -5680,10 +5686,10 @@
         <v>131</v>
       </c>
       <c r="C66" s="8" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>1246</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -5694,10 +5700,10 @@
         <v>133</v>
       </c>
       <c r="C67" s="8" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>1248</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -5708,10 +5714,10 @@
         <v>135</v>
       </c>
       <c r="C68" s="8" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>1248</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -5722,10 +5728,10 @@
         <v>137</v>
       </c>
       <c r="C69" s="8" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>1250</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -5736,10 +5742,10 @@
         <v>139</v>
       </c>
       <c r="C70" s="8" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>1250</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -5750,10 +5756,10 @@
         <v>141</v>
       </c>
       <c r="C71" s="8" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>1250</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -5764,10 +5770,10 @@
         <v>143</v>
       </c>
       <c r="C72" s="8" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D72" s="6" t="s">
         <v>1252</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -5778,10 +5784,10 @@
         <v>145</v>
       </c>
       <c r="C73" s="8" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>1252</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -5792,10 +5798,10 @@
         <v>147</v>
       </c>
       <c r="C74" s="8" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>1252</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -5806,10 +5812,10 @@
         <v>149</v>
       </c>
       <c r="C75" s="8" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D75" s="6" t="s">
         <v>1252</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -5820,10 +5826,10 @@
         <v>151</v>
       </c>
       <c r="C76" s="8" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>1252</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -5834,10 +5840,10 @@
         <v>153</v>
       </c>
       <c r="C77" s="8" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>1252</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -5848,10 +5854,10 @@
         <v>155</v>
       </c>
       <c r="C78" s="8" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>1252</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -5862,10 +5868,10 @@
         <v>157</v>
       </c>
       <c r="C79" s="8" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D79" s="6" t="s">
         <v>1254</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -5876,10 +5882,10 @@
         <v>159</v>
       </c>
       <c r="C80" s="8" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>1254</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -5890,10 +5896,10 @@
         <v>161</v>
       </c>
       <c r="C81" s="8" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D81" s="6" t="s">
         <v>1256</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -5904,10 +5910,10 @@
         <v>163</v>
       </c>
       <c r="C82" s="8" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D82" s="6" t="s">
         <v>1256</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -5918,10 +5924,10 @@
         <v>165</v>
       </c>
       <c r="C83" s="8" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D83" s="6" t="s">
         <v>1256</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -5932,10 +5938,10 @@
         <v>167</v>
       </c>
       <c r="C84" s="8" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D84" s="6" t="s">
         <v>1256</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -5946,10 +5952,10 @@
         <v>169</v>
       </c>
       <c r="C85" s="8" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D85" s="6" t="s">
         <v>1256</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -5960,10 +5966,10 @@
         <v>171</v>
       </c>
       <c r="C86" s="8" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D86" s="6" t="s">
         <v>1256</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -5974,10 +5980,10 @@
         <v>173</v>
       </c>
       <c r="C87" s="8" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D87" s="6" t="s">
         <v>1258</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>1259</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -5988,10 +5994,10 @@
         <v>175</v>
       </c>
       <c r="C88" s="8" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D88" s="6" t="s">
         <v>1260</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>1261</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -6002,10 +6008,10 @@
         <v>177</v>
       </c>
       <c r="C89" s="8" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D89" s="6" t="s">
         <v>1262</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -6016,10 +6022,10 @@
         <v>179</v>
       </c>
       <c r="C90" s="8" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D90" s="6" t="s">
         <v>1262</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -6030,10 +6036,10 @@
         <v>181</v>
       </c>
       <c r="C91" s="8" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D91" s="6" t="s">
         <v>1262</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -6044,10 +6050,10 @@
         <v>183</v>
       </c>
       <c r="C92" s="8" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D92" s="6" t="s">
         <v>1262</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -6058,10 +6064,10 @@
         <v>185</v>
       </c>
       <c r="C93" s="8" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D93" s="6" t="s">
         <v>1262</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -6072,10 +6078,10 @@
         <v>187</v>
       </c>
       <c r="C94" s="8" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D94" s="6" t="s">
         <v>1262</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -6086,10 +6092,10 @@
         <v>189</v>
       </c>
       <c r="C95" s="8" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D95" s="6" t="s">
         <v>1262</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -6100,10 +6106,10 @@
         <v>191</v>
       </c>
       <c r="C96" s="8" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D96" s="6" t="s">
         <v>1262</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -6114,10 +6120,10 @@
         <v>193</v>
       </c>
       <c r="C97" s="8" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D97" s="6" t="s">
         <v>1262</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -6128,10 +6134,10 @@
         <v>195</v>
       </c>
       <c r="C98" s="8" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D98" s="6" t="s">
         <v>1262</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -6142,10 +6148,10 @@
         <v>197</v>
       </c>
       <c r="C99" s="8" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D99" s="6" t="s">
         <v>1264</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -6156,10 +6162,10 @@
         <v>199</v>
       </c>
       <c r="C100" s="8" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D100" s="6" t="s">
         <v>1264</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -6170,10 +6176,10 @@
         <v>201</v>
       </c>
       <c r="C101" s="8" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D101" s="6" t="s">
         <v>1264</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -6184,10 +6190,10 @@
         <v>203</v>
       </c>
       <c r="C102" s="8" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>1264</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -6198,10 +6204,10 @@
         <v>205</v>
       </c>
       <c r="C103" s="8" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D103" s="6" t="s">
         <v>1264</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -6212,10 +6218,10 @@
         <v>207</v>
       </c>
       <c r="C104" s="8" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D104" s="6" t="s">
         <v>1264</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -6226,10 +6232,10 @@
         <v>209</v>
       </c>
       <c r="C105" s="8" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D105" s="6" t="s">
         <v>1264</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -6240,10 +6246,10 @@
         <v>211</v>
       </c>
       <c r="C106" s="8" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D106" s="6" t="s">
         <v>1264</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -6254,10 +6260,10 @@
         <v>213</v>
       </c>
       <c r="C107" s="8" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D107" s="6" t="s">
         <v>1266</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>1267</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -6268,10 +6274,10 @@
         <v>215</v>
       </c>
       <c r="C108" s="8" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D108" s="6" t="s">
         <v>1266</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>1267</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -6282,10 +6288,10 @@
         <v>217</v>
       </c>
       <c r="C109" s="8" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D109" s="6" t="s">
         <v>1266</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>1267</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -6296,10 +6302,10 @@
         <v>219</v>
       </c>
       <c r="C110" s="8" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D110" s="6" t="s">
         <v>1268</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -6310,10 +6316,10 @@
         <v>221</v>
       </c>
       <c r="C111" s="8" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D111" s="6" t="s">
         <v>1268</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -6324,10 +6330,10 @@
         <v>223</v>
       </c>
       <c r="C112" s="8" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D112" s="6" t="s">
         <v>1268</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -6338,10 +6344,10 @@
         <v>225</v>
       </c>
       <c r="C113" s="8" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D113" s="6" t="s">
         <v>1268</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -6352,10 +6358,10 @@
         <v>227</v>
       </c>
       <c r="C114" s="8" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D114" s="6" t="s">
         <v>1268</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -6366,10 +6372,10 @@
         <v>229</v>
       </c>
       <c r="C115" s="8" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D115" s="6" t="s">
         <v>1268</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -6380,10 +6386,10 @@
         <v>231</v>
       </c>
       <c r="C116" s="8" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D116" s="6" t="s">
         <v>1270</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -6394,10 +6400,10 @@
         <v>233</v>
       </c>
       <c r="C117" s="8" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D117" s="6" t="s">
         <v>1270</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -6408,10 +6414,10 @@
         <v>235</v>
       </c>
       <c r="C118" s="8" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D118" s="6" t="s">
         <v>1270</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -6422,10 +6428,10 @@
         <v>237</v>
       </c>
       <c r="C119" s="8" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D119" s="6" t="s">
         <v>1270</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -6436,10 +6442,10 @@
         <v>239</v>
       </c>
       <c r="C120" s="8" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D120" s="6" t="s">
         <v>1270</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -6450,10 +6456,10 @@
         <v>241</v>
       </c>
       <c r="C121" s="8" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D121" s="6" t="s">
         <v>1270</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -6464,10 +6470,10 @@
         <v>243</v>
       </c>
       <c r="C122" s="8" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D122" s="6" t="s">
         <v>1270</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -6478,10 +6484,10 @@
         <v>245</v>
       </c>
       <c r="C123" s="8" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D123" s="6" t="s">
         <v>1272</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -6492,10 +6498,10 @@
         <v>247</v>
       </c>
       <c r="C124" s="8" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D124" s="6" t="s">
         <v>1272</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -6506,10 +6512,10 @@
         <v>249</v>
       </c>
       <c r="C125" s="8" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D125" s="6" t="s">
         <v>1272</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -6520,10 +6526,10 @@
         <v>251</v>
       </c>
       <c r="C126" s="8" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D126" s="6" t="s">
         <v>1272</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -6534,10 +6540,10 @@
         <v>253</v>
       </c>
       <c r="C127" s="8" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D127" s="6" t="s">
         <v>1272</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -6548,10 +6554,10 @@
         <v>255</v>
       </c>
       <c r="C128" s="8" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D128" s="6" t="s">
         <v>1274</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -6562,10 +6568,10 @@
         <v>257</v>
       </c>
       <c r="C129" s="8" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D129" s="6" t="s">
         <v>1274</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -6576,10 +6582,10 @@
         <v>259</v>
       </c>
       <c r="C130" s="8" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D130" s="6" t="s">
         <v>1282</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>1283</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -6590,10 +6596,10 @@
         <v>261</v>
       </c>
       <c r="C131" s="8" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D131" s="6" t="s">
         <v>1286</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>1287</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -6604,10 +6610,10 @@
         <v>263</v>
       </c>
       <c r="C132" s="8" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D132" s="6" t="s">
         <v>1282</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>1283</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -6618,10 +6624,10 @@
         <v>265</v>
       </c>
       <c r="C133" s="8" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D133" s="6" t="s">
         <v>1284</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>1285</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -6632,10 +6638,10 @@
         <v>267</v>
       </c>
       <c r="C134" s="8" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D134" s="6" t="s">
         <v>1282</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>1283</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -6646,10 +6652,10 @@
         <v>269</v>
       </c>
       <c r="C135" s="8" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D135" s="6" t="s">
         <v>1284</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>1285</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -6660,10 +6666,10 @@
         <v>271</v>
       </c>
       <c r="C136" s="8" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D136" s="6" t="s">
         <v>1284</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>1285</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -6674,10 +6680,10 @@
         <v>273</v>
       </c>
       <c r="C137" s="8" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D137" s="6" t="s">
         <v>1286</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>1287</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -6688,10 +6694,10 @@
         <v>275</v>
       </c>
       <c r="C138" s="8" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D138" s="6" t="s">
         <v>1276</v>
-      </c>
-      <c r="D138" s="6" t="s">
-        <v>1277</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -6702,10 +6708,10 @@
         <v>277</v>
       </c>
       <c r="C139" s="8" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D139" s="6" t="s">
         <v>1278</v>
-      </c>
-      <c r="D139" s="6" t="s">
-        <v>1279</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -6716,10 +6722,10 @@
         <v>279</v>
       </c>
       <c r="C140" s="8" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D140" s="6" t="s">
         <v>1278</v>
-      </c>
-      <c r="D140" s="6" t="s">
-        <v>1279</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -6730,10 +6736,10 @@
         <v>281</v>
       </c>
       <c r="C141" s="8" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D141" s="6" t="s">
         <v>1280</v>
-      </c>
-      <c r="D141" s="6" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -6744,10 +6750,10 @@
         <v>283</v>
       </c>
       <c r="C142" s="8" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D142" s="6" t="s">
         <v>1280</v>
-      </c>
-      <c r="D142" s="6" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -6758,10 +6764,10 @@
         <v>285</v>
       </c>
       <c r="C143" s="8" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D143" s="6" t="s">
         <v>1280</v>
-      </c>
-      <c r="D143" s="6" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -6772,10 +6778,10 @@
         <v>287</v>
       </c>
       <c r="C144" s="8" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D144" s="6" t="s">
         <v>1280</v>
-      </c>
-      <c r="D144" s="6" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -6786,10 +6792,10 @@
         <v>289</v>
       </c>
       <c r="C145" s="8" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D145" s="6" t="s">
         <v>1284</v>
-      </c>
-      <c r="D145" s="6" t="s">
-        <v>1285</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -6800,10 +6806,10 @@
         <v>291</v>
       </c>
       <c r="C146" s="8" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D146" s="6" t="s">
         <v>1288</v>
-      </c>
-      <c r="D146" s="6" t="s">
-        <v>1289</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -6814,10 +6820,10 @@
         <v>293</v>
       </c>
       <c r="C147" s="8" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D147" s="6" t="s">
         <v>1288</v>
-      </c>
-      <c r="D147" s="6" t="s">
-        <v>1289</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -6828,10 +6834,10 @@
         <v>295</v>
       </c>
       <c r="C148" s="8" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D148" s="6" t="s">
         <v>1290</v>
-      </c>
-      <c r="D148" s="6" t="s">
-        <v>1291</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -6842,10 +6848,10 @@
         <v>297</v>
       </c>
       <c r="C149" s="8" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D149" s="6" t="s">
         <v>1290</v>
-      </c>
-      <c r="D149" s="6" t="s">
-        <v>1291</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -6856,10 +6862,10 @@
         <v>299</v>
       </c>
       <c r="C150" s="8" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D150" s="6" t="s">
         <v>1290</v>
-      </c>
-      <c r="D150" s="6" t="s">
-        <v>1291</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -6870,10 +6876,10 @@
         <v>301</v>
       </c>
       <c r="C151" s="8" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D151" s="6" t="s">
         <v>1290</v>
-      </c>
-      <c r="D151" s="6" t="s">
-        <v>1291</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -6884,10 +6890,10 @@
         <v>303</v>
       </c>
       <c r="C152" s="8" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D152" s="6" t="s">
         <v>1290</v>
-      </c>
-      <c r="D152" s="6" t="s">
-        <v>1291</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -6898,10 +6904,10 @@
         <v>305</v>
       </c>
       <c r="C153" s="8" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D153" s="6" t="s">
         <v>1290</v>
-      </c>
-      <c r="D153" s="6" t="s">
-        <v>1291</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -6912,10 +6918,10 @@
         <v>307</v>
       </c>
       <c r="C154" s="8" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D154" s="6" t="s">
         <v>1294</v>
-      </c>
-      <c r="D154" s="6" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -6926,10 +6932,10 @@
         <v>309</v>
       </c>
       <c r="C155" s="8" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D155" s="6" t="s">
         <v>1294</v>
-      </c>
-      <c r="D155" s="6" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -6940,10 +6946,10 @@
         <v>311</v>
       </c>
       <c r="C156" s="8" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D156" s="6" t="s">
         <v>1294</v>
-      </c>
-      <c r="D156" s="6" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -6954,10 +6960,10 @@
         <v>313</v>
       </c>
       <c r="C157" s="8" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D157" s="6" t="s">
         <v>1294</v>
-      </c>
-      <c r="D157" s="6" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -6968,10 +6974,10 @@
         <v>315</v>
       </c>
       <c r="C158" s="8" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D158" s="6" t="s">
         <v>1294</v>
-      </c>
-      <c r="D158" s="6" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -6982,10 +6988,10 @@
         <v>317</v>
       </c>
       <c r="C159" s="8" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D159" s="6" t="s">
         <v>1294</v>
-      </c>
-      <c r="D159" s="6" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -6996,10 +7002,10 @@
         <v>319</v>
       </c>
       <c r="C160" s="8" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D160" s="6" t="s">
         <v>1294</v>
-      </c>
-      <c r="D160" s="6" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -7010,10 +7016,10 @@
         <v>321</v>
       </c>
       <c r="C161" s="8" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D161" s="6" t="s">
         <v>1294</v>
-      </c>
-      <c r="D161" s="6" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -7024,10 +7030,10 @@
         <v>323</v>
       </c>
       <c r="C162" s="8" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D162" s="6" t="s">
         <v>1294</v>
-      </c>
-      <c r="D162" s="6" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -7038,10 +7044,10 @@
         <v>325</v>
       </c>
       <c r="C163" s="8" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D163" s="6" t="s">
         <v>1294</v>
-      </c>
-      <c r="D163" s="6" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -7052,10 +7058,10 @@
         <v>327</v>
       </c>
       <c r="C164" s="8" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D164" s="6" t="s">
         <v>1294</v>
-      </c>
-      <c r="D164" s="6" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -7066,10 +7072,10 @@
         <v>329</v>
       </c>
       <c r="C165" s="8" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D165" s="6" t="s">
         <v>1294</v>
-      </c>
-      <c r="D165" s="6" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -7080,10 +7086,10 @@
         <v>331</v>
       </c>
       <c r="C166" s="8" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D166" s="6" t="s">
         <v>1294</v>
-      </c>
-      <c r="D166" s="6" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -7094,10 +7100,10 @@
         <v>333</v>
       </c>
       <c r="C167" s="8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D167" s="6" t="s">
         <v>1292</v>
-      </c>
-      <c r="D167" s="6" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -7108,10 +7114,10 @@
         <v>335</v>
       </c>
       <c r="C168" s="8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D168" s="6" t="s">
         <v>1292</v>
-      </c>
-      <c r="D168" s="6" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -7122,10 +7128,10 @@
         <v>337</v>
       </c>
       <c r="C169" s="8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D169" s="6" t="s">
         <v>1292</v>
-      </c>
-      <c r="D169" s="6" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -7136,10 +7142,10 @@
         <v>339</v>
       </c>
       <c r="C170" s="8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D170" s="6" t="s">
         <v>1292</v>
-      </c>
-      <c r="D170" s="6" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -7150,10 +7156,10 @@
         <v>341</v>
       </c>
       <c r="C171" s="8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D171" s="6" t="s">
         <v>1292</v>
-      </c>
-      <c r="D171" s="6" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -7164,10 +7170,10 @@
         <v>343</v>
       </c>
       <c r="C172" s="8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D172" s="6" t="s">
         <v>1292</v>
-      </c>
-      <c r="D172" s="6" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -7178,10 +7184,10 @@
         <v>345</v>
       </c>
       <c r="C173" s="8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D173" s="6" t="s">
         <v>1292</v>
-      </c>
-      <c r="D173" s="6" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -7192,10 +7198,10 @@
         <v>347</v>
       </c>
       <c r="C174" s="8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D174" s="6" t="s">
         <v>1292</v>
-      </c>
-      <c r="D174" s="6" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -7206,10 +7212,10 @@
         <v>349</v>
       </c>
       <c r="C175" s="8" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D175" s="6" t="s">
         <v>1294</v>
-      </c>
-      <c r="D175" s="6" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -7220,10 +7226,10 @@
         <v>351</v>
       </c>
       <c r="C176" s="8" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D176" s="6" t="s">
         <v>1294</v>
-      </c>
-      <c r="D176" s="6" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -7234,10 +7240,10 @@
         <v>353</v>
       </c>
       <c r="C177" s="8" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D177" s="6" t="s">
         <v>1294</v>
-      </c>
-      <c r="D177" s="6" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -7248,10 +7254,10 @@
         <v>355</v>
       </c>
       <c r="C178" s="8" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D178" s="6" t="s">
         <v>1296</v>
-      </c>
-      <c r="D178" s="6" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -7262,10 +7268,10 @@
         <v>357</v>
       </c>
       <c r="C179" s="8" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D179" s="6" t="s">
         <v>1296</v>
-      </c>
-      <c r="D179" s="6" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -7276,10 +7282,10 @@
         <v>359</v>
       </c>
       <c r="C180" s="8" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D180" s="6" t="s">
         <v>1296</v>
-      </c>
-      <c r="D180" s="6" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -7290,10 +7296,10 @@
         <v>361</v>
       </c>
       <c r="C181" s="8" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D181" s="6" t="s">
         <v>1296</v>
-      </c>
-      <c r="D181" s="6" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -7304,10 +7310,10 @@
         <v>363</v>
       </c>
       <c r="C182" s="8" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D182" s="6" t="s">
         <v>1296</v>
-      </c>
-      <c r="D182" s="6" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -7318,10 +7324,10 @@
         <v>365</v>
       </c>
       <c r="C183" s="8" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D183" s="6" t="s">
         <v>1296</v>
-      </c>
-      <c r="D183" s="6" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -7332,10 +7338,10 @@
         <v>367</v>
       </c>
       <c r="C184" s="8" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D184" s="6" t="s">
         <v>1298</v>
-      </c>
-      <c r="D184" s="6" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -7346,10 +7352,10 @@
         <v>369</v>
       </c>
       <c r="C185" s="8" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D185" s="6" t="s">
         <v>1298</v>
-      </c>
-      <c r="D185" s="6" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -7360,10 +7366,10 @@
         <v>371</v>
       </c>
       <c r="C186" s="8" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D186" s="6" t="s">
         <v>1298</v>
-      </c>
-      <c r="D186" s="6" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -7374,10 +7380,10 @@
         <v>373</v>
       </c>
       <c r="C187" s="8" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D187" s="6" t="s">
         <v>1298</v>
-      </c>
-      <c r="D187" s="6" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -7388,10 +7394,10 @@
         <v>375</v>
       </c>
       <c r="C188" s="8" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D188" s="6" t="s">
         <v>1298</v>
-      </c>
-      <c r="D188" s="6" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -7402,10 +7408,10 @@
         <v>377</v>
       </c>
       <c r="C189" s="8" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D189" s="6" t="s">
         <v>1298</v>
-      </c>
-      <c r="D189" s="6" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -7416,10 +7422,10 @@
         <v>379</v>
       </c>
       <c r="C190" s="8" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D190" s="6" t="s">
         <v>1298</v>
-      </c>
-      <c r="D190" s="6" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -7430,10 +7436,10 @@
         <v>381</v>
       </c>
       <c r="C191" s="8" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D191" s="6" t="s">
         <v>1298</v>
-      </c>
-      <c r="D191" s="6" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -7444,10 +7450,10 @@
         <v>383</v>
       </c>
       <c r="C192" s="8" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D192" s="6" t="s">
         <v>1298</v>
-      </c>
-      <c r="D192" s="6" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -7458,10 +7464,10 @@
         <v>385</v>
       </c>
       <c r="C193" s="8" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D193" s="6" t="s">
         <v>1298</v>
-      </c>
-      <c r="D193" s="6" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -7472,10 +7478,10 @@
         <v>387</v>
       </c>
       <c r="C194" s="8" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D194" s="6" t="s">
         <v>1302</v>
-      </c>
-      <c r="D194" s="6" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -7486,10 +7492,10 @@
         <v>389</v>
       </c>
       <c r="C195" s="8" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D195" s="6" t="s">
         <v>1302</v>
-      </c>
-      <c r="D195" s="6" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -7500,10 +7506,10 @@
         <v>391</v>
       </c>
       <c r="C196" s="8" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D196" s="6" t="s">
         <v>1302</v>
-      </c>
-      <c r="D196" s="6" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -7514,10 +7520,10 @@
         <v>393</v>
       </c>
       <c r="C197" s="8" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D197" s="6" t="s">
         <v>1302</v>
-      </c>
-      <c r="D197" s="6" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -7528,10 +7534,10 @@
         <v>395</v>
       </c>
       <c r="C198" s="8" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D198" s="6" t="s">
         <v>1302</v>
-      </c>
-      <c r="D198" s="6" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -7542,10 +7548,10 @@
         <v>397</v>
       </c>
       <c r="C199" s="8" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D199" s="6" t="s">
         <v>1300</v>
-      </c>
-      <c r="D199" s="6" t="s">
-        <v>1301</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -7556,10 +7562,10 @@
         <v>399</v>
       </c>
       <c r="C200" s="8" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D200" s="6" t="s">
         <v>1302</v>
-      </c>
-      <c r="D200" s="6" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -7570,10 +7576,10 @@
         <v>401</v>
       </c>
       <c r="C201" s="8" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D201" s="6" t="s">
         <v>1302</v>
-      </c>
-      <c r="D201" s="6" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -7584,10 +7590,10 @@
         <v>403</v>
       </c>
       <c r="C202" s="8" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D202" s="6" t="s">
         <v>1302</v>
-      </c>
-      <c r="D202" s="6" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -7598,10 +7604,10 @@
         <v>405</v>
       </c>
       <c r="C203" s="8" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D203" s="6" t="s">
         <v>1302</v>
-      </c>
-      <c r="D203" s="6" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -7612,10 +7618,10 @@
         <v>407</v>
       </c>
       <c r="C204" s="8" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D204" s="6" t="s">
         <v>1302</v>
-      </c>
-      <c r="D204" s="6" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -7626,10 +7632,10 @@
         <v>409</v>
       </c>
       <c r="C205" s="8" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D205" s="6" t="s">
         <v>1302</v>
-      </c>
-      <c r="D205" s="6" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -7640,10 +7646,10 @@
         <v>411</v>
       </c>
       <c r="C206" s="8" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D206" s="6" t="s">
         <v>1302</v>
-      </c>
-      <c r="D206" s="6" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -7654,10 +7660,10 @@
         <v>413</v>
       </c>
       <c r="C207" s="8" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D207" s="6" t="s">
         <v>1302</v>
-      </c>
-      <c r="D207" s="6" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -7668,10 +7674,10 @@
         <v>415</v>
       </c>
       <c r="C208" s="8" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D208" s="6" t="s">
         <v>1302</v>
-      </c>
-      <c r="D208" s="6" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -7682,10 +7688,10 @@
         <v>417</v>
       </c>
       <c r="C209" s="8" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D209" s="6" t="s">
         <v>1302</v>
-      </c>
-      <c r="D209" s="6" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -7696,10 +7702,10 @@
         <v>419</v>
       </c>
       <c r="C210" s="8" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D210" s="6" t="s">
         <v>1302</v>
-      </c>
-      <c r="D210" s="6" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -7710,10 +7716,10 @@
         <v>421</v>
       </c>
       <c r="C211" s="8" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D211" s="6" t="s">
         <v>1304</v>
-      </c>
-      <c r="D211" s="6" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -7724,10 +7730,10 @@
         <v>423</v>
       </c>
       <c r="C212" s="8" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D212" s="6" t="s">
         <v>1304</v>
-      </c>
-      <c r="D212" s="6" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -7738,10 +7744,10 @@
         <v>425</v>
       </c>
       <c r="C213" s="8" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D213" s="6" t="s">
         <v>1304</v>
-      </c>
-      <c r="D213" s="6" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -7752,10 +7758,10 @@
         <v>427</v>
       </c>
       <c r="C214" s="8" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D214" s="6" t="s">
         <v>1304</v>
-      </c>
-      <c r="D214" s="6" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -7766,10 +7772,10 @@
         <v>429</v>
       </c>
       <c r="C215" s="8" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D215" s="6" t="s">
         <v>1304</v>
-      </c>
-      <c r="D215" s="6" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -7780,10 +7786,10 @@
         <v>431</v>
       </c>
       <c r="C216" s="8" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D216" s="6" t="s">
         <v>1304</v>
-      </c>
-      <c r="D216" s="6" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -7794,10 +7800,10 @@
         <v>433</v>
       </c>
       <c r="C217" s="8" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D217" s="6" t="s">
         <v>1304</v>
-      </c>
-      <c r="D217" s="6" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -7808,10 +7814,10 @@
         <v>435</v>
       </c>
       <c r="C218" s="8" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D218" s="6" t="s">
         <v>1304</v>
-      </c>
-      <c r="D218" s="6" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -7822,10 +7828,10 @@
         <v>437</v>
       </c>
       <c r="C219" s="8" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D219" s="6" t="s">
         <v>1304</v>
-      </c>
-      <c r="D219" s="6" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -7836,10 +7842,10 @@
         <v>439</v>
       </c>
       <c r="C220" s="8" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D220" s="6" t="s">
         <v>1304</v>
-      </c>
-      <c r="D220" s="6" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -7850,10 +7856,10 @@
         <v>441</v>
       </c>
       <c r="C221" s="8" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D221" s="6" t="s">
         <v>1306</v>
-      </c>
-      <c r="D221" s="6" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -7864,10 +7870,10 @@
         <v>443</v>
       </c>
       <c r="C222" s="8" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D222" s="6" t="s">
         <v>1306</v>
-      </c>
-      <c r="D222" s="6" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -7878,10 +7884,10 @@
         <v>445</v>
       </c>
       <c r="C223" s="8" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D223" s="6" t="s">
         <v>1306</v>
-      </c>
-      <c r="D223" s="6" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -7892,10 +7898,10 @@
         <v>447</v>
       </c>
       <c r="C224" s="8" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D224" s="6" t="s">
         <v>1306</v>
-      </c>
-      <c r="D224" s="6" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -7906,10 +7912,10 @@
         <v>449</v>
       </c>
       <c r="C225" s="8" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D225" s="6" t="s">
         <v>1306</v>
-      </c>
-      <c r="D225" s="6" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -7920,10 +7926,10 @@
         <v>451</v>
       </c>
       <c r="C226" s="8" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D226" s="6" t="s">
         <v>1306</v>
-      </c>
-      <c r="D226" s="6" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -7934,10 +7940,10 @@
         <v>453</v>
       </c>
       <c r="C227" s="8" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D227" s="6" t="s">
         <v>1306</v>
-      </c>
-      <c r="D227" s="6" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -7948,10 +7954,10 @@
         <v>455</v>
       </c>
       <c r="C228" s="8" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D228" s="6" t="s">
         <v>1306</v>
-      </c>
-      <c r="D228" s="6" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -7962,10 +7968,10 @@
         <v>457</v>
       </c>
       <c r="C229" s="8" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D229" s="6" t="s">
         <v>1306</v>
-      </c>
-      <c r="D229" s="6" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -7976,10 +7982,10 @@
         <v>459</v>
       </c>
       <c r="C230" s="8" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D230" s="6" t="s">
         <v>1306</v>
-      </c>
-      <c r="D230" s="6" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -7990,10 +7996,10 @@
         <v>461</v>
       </c>
       <c r="C231" s="8" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D231" s="6" t="s">
         <v>1308</v>
-      </c>
-      <c r="D231" s="6" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8004,10 +8010,10 @@
         <v>463</v>
       </c>
       <c r="C232" s="8" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D232" s="6" t="s">
         <v>1308</v>
-      </c>
-      <c r="D232" s="6" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8018,10 +8024,10 @@
         <v>465</v>
       </c>
       <c r="C233" s="8" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D233" s="6" t="s">
         <v>1308</v>
-      </c>
-      <c r="D233" s="6" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8032,10 +8038,10 @@
         <v>467</v>
       </c>
       <c r="C234" s="8" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D234" s="6" t="s">
         <v>1308</v>
-      </c>
-      <c r="D234" s="6" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8046,10 +8052,10 @@
         <v>469</v>
       </c>
       <c r="C235" s="8" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D235" s="6" t="s">
         <v>1308</v>
-      </c>
-      <c r="D235" s="6" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8060,10 +8066,10 @@
         <v>471</v>
       </c>
       <c r="C236" s="8" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D236" s="6" t="s">
         <v>1308</v>
-      </c>
-      <c r="D236" s="6" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8074,10 +8080,10 @@
         <v>473</v>
       </c>
       <c r="C237" s="8" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D237" s="6" t="s">
         <v>1308</v>
-      </c>
-      <c r="D237" s="6" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -8088,10 +8094,10 @@
         <v>475</v>
       </c>
       <c r="C238" s="8" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D238" s="6" t="s">
         <v>1308</v>
-      </c>
-      <c r="D238" s="6" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8102,10 +8108,10 @@
         <v>477</v>
       </c>
       <c r="C239" s="8" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D239" s="6" t="s">
         <v>1308</v>
-      </c>
-      <c r="D239" s="6" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8116,10 +8122,10 @@
         <v>479</v>
       </c>
       <c r="C240" s="8" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D240" s="6" t="s">
         <v>1308</v>
-      </c>
-      <c r="D240" s="6" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8130,10 +8136,10 @@
         <v>481</v>
       </c>
       <c r="C241" s="8" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D241" s="6" t="s">
         <v>1308</v>
-      </c>
-      <c r="D241" s="6" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8144,10 +8150,10 @@
         <v>483</v>
       </c>
       <c r="C242" s="8" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D242" s="6" t="s">
         <v>1308</v>
-      </c>
-      <c r="D242" s="6" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8158,10 +8164,10 @@
         <v>485</v>
       </c>
       <c r="C243" s="8" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D243" s="6" t="s">
         <v>1308</v>
-      </c>
-      <c r="D243" s="6" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -8172,10 +8178,10 @@
         <v>487</v>
       </c>
       <c r="C244" s="8" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D244" s="6" t="s">
         <v>1308</v>
-      </c>
-      <c r="D244" s="6" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8186,10 +8192,10 @@
         <v>489</v>
       </c>
       <c r="C245" s="8" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D245" s="6" t="s">
         <v>1308</v>
-      </c>
-      <c r="D245" s="6" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8200,10 +8206,10 @@
         <v>491</v>
       </c>
       <c r="C246" s="8" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D246" s="6" t="s">
         <v>1308</v>
-      </c>
-      <c r="D246" s="6" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8214,10 +8220,10 @@
         <v>493</v>
       </c>
       <c r="C247" s="8" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D247" s="6" t="s">
         <v>1308</v>
-      </c>
-      <c r="D247" s="6" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -8228,10 +8234,10 @@
         <v>495</v>
       </c>
       <c r="C248" s="8" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D248" s="6" t="s">
         <v>1308</v>
-      </c>
-      <c r="D248" s="6" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8242,10 +8248,10 @@
         <v>497</v>
       </c>
       <c r="C249" s="8" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D249" s="6" t="s">
         <v>1308</v>
-      </c>
-      <c r="D249" s="6" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8256,10 +8262,10 @@
         <v>499</v>
       </c>
       <c r="C250" s="8" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D250" s="6" t="s">
         <v>1308</v>
-      </c>
-      <c r="D250" s="6" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8270,10 +8276,10 @@
         <v>501</v>
       </c>
       <c r="C251" s="8" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D251" s="6" t="s">
         <v>1308</v>
-      </c>
-      <c r="D251" s="6" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -8284,10 +8290,10 @@
         <v>503</v>
       </c>
       <c r="C252" s="8" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D252" s="6" t="s">
         <v>1310</v>
-      </c>
-      <c r="D252" s="6" t="s">
-        <v>1311</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -8298,10 +8304,10 @@
         <v>505</v>
       </c>
       <c r="C253" s="8" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D253" s="6" t="s">
         <v>1310</v>
-      </c>
-      <c r="D253" s="6" t="s">
-        <v>1311</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -8312,10 +8318,10 @@
         <v>507</v>
       </c>
       <c r="C254" s="8" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D254" s="6" t="s">
         <v>1310</v>
-      </c>
-      <c r="D254" s="6" t="s">
-        <v>1311</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8326,10 +8332,10 @@
         <v>509</v>
       </c>
       <c r="C255" s="8" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D255" s="6" t="s">
         <v>1310</v>
-      </c>
-      <c r="D255" s="6" t="s">
-        <v>1311</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8340,10 +8346,10 @@
         <v>511</v>
       </c>
       <c r="C256" s="8" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D256" s="6" t="s">
         <v>1312</v>
-      </c>
-      <c r="D256" s="6" t="s">
-        <v>1313</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8354,10 +8360,10 @@
         <v>513</v>
       </c>
       <c r="C257" s="8" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D257" s="6" t="s">
         <v>1312</v>
-      </c>
-      <c r="D257" s="6" t="s">
-        <v>1313</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8368,10 +8374,10 @@
         <v>515</v>
       </c>
       <c r="C258" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D258" s="6" t="s">
         <v>1316</v>
-      </c>
-      <c r="D258" s="6" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8382,10 +8388,10 @@
         <v>517</v>
       </c>
       <c r="C259" s="8" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D259" s="6" t="s">
         <v>1314</v>
-      </c>
-      <c r="D259" s="6" t="s">
-        <v>1315</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8396,10 +8402,10 @@
         <v>519</v>
       </c>
       <c r="C260" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D260" s="6" t="s">
         <v>1316</v>
-      </c>
-      <c r="D260" s="6" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -8410,10 +8416,10 @@
         <v>521</v>
       </c>
       <c r="C261" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D261" s="6" t="s">
         <v>1316</v>
-      </c>
-      <c r="D261" s="6" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8424,10 +8430,10 @@
         <v>523</v>
       </c>
       <c r="C262" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D262" s="6" t="s">
         <v>1316</v>
-      </c>
-      <c r="D262" s="6" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8438,10 +8444,10 @@
         <v>525</v>
       </c>
       <c r="C263" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D263" s="6" t="s">
         <v>1316</v>
-      </c>
-      <c r="D263" s="6" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8452,10 +8458,10 @@
         <v>527</v>
       </c>
       <c r="C264" s="8" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D264" s="6" t="s">
         <v>1318</v>
-      </c>
-      <c r="D264" s="6" t="s">
-        <v>1319</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -8466,10 +8472,10 @@
         <v>529</v>
       </c>
       <c r="C265" s="8" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D265" s="6" t="s">
         <v>1318</v>
-      </c>
-      <c r="D265" s="6" t="s">
-        <v>1319</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -8480,10 +8486,10 @@
         <v>531</v>
       </c>
       <c r="C266" s="8" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D266" s="6" t="s">
         <v>1318</v>
-      </c>
-      <c r="D266" s="6" t="s">
-        <v>1319</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -8494,10 +8500,10 @@
         <v>533</v>
       </c>
       <c r="C267" s="8" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D267" s="6" t="s">
         <v>1318</v>
-      </c>
-      <c r="D267" s="6" t="s">
-        <v>1319</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -8508,10 +8514,10 @@
         <v>535</v>
       </c>
       <c r="C268" s="8" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D268" s="6" t="s">
         <v>1320</v>
-      </c>
-      <c r="D268" s="6" t="s">
-        <v>1321</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8522,10 +8528,10 @@
         <v>537</v>
       </c>
       <c r="C269" s="8" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D269" s="6" t="s">
         <v>1320</v>
-      </c>
-      <c r="D269" s="6" t="s">
-        <v>1321</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8536,10 +8542,10 @@
         <v>539</v>
       </c>
       <c r="C270" s="8" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D270" s="6" t="s">
         <v>1320</v>
-      </c>
-      <c r="D270" s="6" t="s">
-        <v>1321</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8550,10 +8556,10 @@
         <v>541</v>
       </c>
       <c r="C271" s="8" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D271" s="6" t="s">
         <v>1320</v>
-      </c>
-      <c r="D271" s="6" t="s">
-        <v>1321</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -8564,10 +8570,10 @@
         <v>543</v>
       </c>
       <c r="C272" s="8" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D272" s="6" t="s">
         <v>1320</v>
-      </c>
-      <c r="D272" s="6" t="s">
-        <v>1321</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -8578,10 +8584,10 @@
         <v>545</v>
       </c>
       <c r="C273" s="8" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D273" s="6" t="s">
         <v>1320</v>
-      </c>
-      <c r="D273" s="6" t="s">
-        <v>1321</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8592,10 +8598,10 @@
         <v>547</v>
       </c>
       <c r="C274" s="8" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D274" s="6" t="s">
         <v>1320</v>
-      </c>
-      <c r="D274" s="6" t="s">
-        <v>1321</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8606,10 +8612,10 @@
         <v>549</v>
       </c>
       <c r="C275" s="8" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D275" s="6" t="s">
         <v>1320</v>
-      </c>
-      <c r="D275" s="6" t="s">
-        <v>1321</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -8620,10 +8626,10 @@
         <v>551</v>
       </c>
       <c r="C276" s="8" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D276" s="6" t="s">
         <v>1320</v>
-      </c>
-      <c r="D276" s="6" t="s">
-        <v>1321</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -8634,10 +8640,10 @@
         <v>553</v>
       </c>
       <c r="C277" s="8" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D277" s="6" t="s">
         <v>1326</v>
-      </c>
-      <c r="D277" s="6" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -8648,10 +8654,10 @@
         <v>555</v>
       </c>
       <c r="C278" s="8" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D278" s="6" t="s">
         <v>1326</v>
-      </c>
-      <c r="D278" s="6" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8662,10 +8668,10 @@
         <v>557</v>
       </c>
       <c r="C279" s="8" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D279" s="6" t="s">
         <v>1326</v>
-      </c>
-      <c r="D279" s="6" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -8676,10 +8682,10 @@
         <v>559</v>
       </c>
       <c r="C280" s="8" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D280" s="6" t="s">
         <v>1326</v>
-      </c>
-      <c r="D280" s="6" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8690,10 +8696,10 @@
         <v>561</v>
       </c>
       <c r="C281" s="8" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D281" s="6" t="s">
         <v>1322</v>
-      </c>
-      <c r="D281" s="6" t="s">
-        <v>1323</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8704,10 +8710,10 @@
         <v>563</v>
       </c>
       <c r="C282" s="8" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D282" s="6" t="s">
         <v>1324</v>
-      </c>
-      <c r="D282" s="6" t="s">
-        <v>1325</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8718,10 +8724,10 @@
         <v>565</v>
       </c>
       <c r="C283" s="8" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D283" s="6" t="s">
         <v>1326</v>
-      </c>
-      <c r="D283" s="6" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -8732,10 +8738,10 @@
         <v>567</v>
       </c>
       <c r="C284" s="8" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D284" s="6" t="s">
         <v>1326</v>
-      </c>
-      <c r="D284" s="6" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8746,10 +8752,10 @@
         <v>569</v>
       </c>
       <c r="C285" s="8" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D285" s="6" t="s">
         <v>1326</v>
-      </c>
-      <c r="D285" s="6" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -8760,10 +8766,10 @@
         <v>571</v>
       </c>
       <c r="C286" s="8" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D286" s="6" t="s">
         <v>1328</v>
-      </c>
-      <c r="D286" s="6" t="s">
-        <v>1329</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -8774,10 +8780,10 @@
         <v>573</v>
       </c>
       <c r="C287" s="8" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D287" s="6" t="s">
         <v>1328</v>
-      </c>
-      <c r="D287" s="6" t="s">
-        <v>1329</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -8788,10 +8794,10 @@
         <v>575</v>
       </c>
       <c r="C288" s="8" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D288" s="6" t="s">
         <v>1328</v>
-      </c>
-      <c r="D288" s="6" t="s">
-        <v>1329</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -8802,10 +8808,10 @@
         <v>577</v>
       </c>
       <c r="C289" s="8" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D289" s="6" t="s">
         <v>1328</v>
-      </c>
-      <c r="D289" s="6" t="s">
-        <v>1329</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -8816,10 +8822,10 @@
         <v>579</v>
       </c>
       <c r="C290" s="8" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D290" s="6" t="s">
         <v>1330</v>
-      </c>
-      <c r="D290" s="6" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8830,10 +8836,10 @@
         <v>581</v>
       </c>
       <c r="C291" s="8" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D291" s="6" t="s">
         <v>1330</v>
-      </c>
-      <c r="D291" s="6" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -8844,10 +8850,10 @@
         <v>583</v>
       </c>
       <c r="C292" s="8" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D292" s="6" t="s">
         <v>1330</v>
-      </c>
-      <c r="D292" s="6" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -8858,10 +8864,10 @@
         <v>585</v>
       </c>
       <c r="C293" s="8" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D293" s="6" t="s">
         <v>1330</v>
-      </c>
-      <c r="D293" s="6" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8872,10 +8878,10 @@
         <v>587</v>
       </c>
       <c r="C294" s="8" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D294" s="6" t="s">
         <v>1332</v>
-      </c>
-      <c r="D294" s="6" t="s">
-        <v>1333</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -8886,10 +8892,10 @@
         <v>589</v>
       </c>
       <c r="C295" s="8" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D295" s="6" t="s">
         <v>1334</v>
-      </c>
-      <c r="D295" s="6" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -8900,10 +8906,10 @@
         <v>591</v>
       </c>
       <c r="C296" s="8" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D296" s="6" t="s">
         <v>1336</v>
-      </c>
-      <c r="D296" s="6" t="s">
-        <v>1337</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -8914,10 +8920,10 @@
         <v>593</v>
       </c>
       <c r="C297" s="8" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D297" s="6" t="s">
         <v>1336</v>
-      </c>
-      <c r="D297" s="6" t="s">
-        <v>1337</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8928,10 +8934,10 @@
         <v>595</v>
       </c>
       <c r="C298" s="8" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D298" s="6" t="s">
         <v>1336</v>
-      </c>
-      <c r="D298" s="6" t="s">
-        <v>1337</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8942,10 +8948,10 @@
         <v>597</v>
       </c>
       <c r="C299" s="8" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D299" s="6" t="s">
         <v>1336</v>
-      </c>
-      <c r="D299" s="6" t="s">
-        <v>1337</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -8956,10 +8962,10 @@
         <v>599</v>
       </c>
       <c r="C300" s="8" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D300" s="6" t="s">
         <v>1336</v>
-      </c>
-      <c r="D300" s="6" t="s">
-        <v>1337</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -8970,10 +8976,10 @@
         <v>601</v>
       </c>
       <c r="C301" s="8" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D301" s="6" t="s">
         <v>1336</v>
-      </c>
-      <c r="D301" s="6" t="s">
-        <v>1337</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -8984,10 +8990,10 @@
         <v>603</v>
       </c>
       <c r="C302" s="8" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D302" s="6" t="s">
         <v>1338</v>
-      </c>
-      <c r="D302" s="6" t="s">
-        <v>1339</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -8998,10 +9004,10 @@
         <v>605</v>
       </c>
       <c r="C303" s="8" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D303" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="D303" s="6" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -9012,10 +9018,10 @@
         <v>607</v>
       </c>
       <c r="C304" s="8" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D304" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="D304" s="6" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -9026,10 +9032,10 @@
         <v>609</v>
       </c>
       <c r="C305" s="8" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D305" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="D305" s="6" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -9040,10 +9046,10 @@
         <v>611</v>
       </c>
       <c r="C306" s="8" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D306" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="D306" s="6" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -9054,10 +9060,10 @@
         <v>613</v>
       </c>
       <c r="C307" s="8" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D307" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="D307" s="6" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="308" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -9068,10 +9074,10 @@
         <v>615</v>
       </c>
       <c r="C308" s="8" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D308" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="D308" s="6" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="309" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -9082,10 +9088,10 @@
         <v>617</v>
       </c>
       <c r="C309" s="8" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D309" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="D309" s="6" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -9096,10 +9102,10 @@
         <v>619</v>
       </c>
       <c r="C310" s="8" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D310" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="D310" s="6" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -9110,10 +9116,10 @@
         <v>621</v>
       </c>
       <c r="C311" s="8" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D311" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="D311" s="6" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -9124,10 +9130,10 @@
         <v>623</v>
       </c>
       <c r="C312" s="8" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D312" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="D312" s="6" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -9138,10 +9144,10 @@
         <v>625</v>
       </c>
       <c r="C313" s="8" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D313" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="D313" s="6" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -9152,10 +9158,10 @@
         <v>627</v>
       </c>
       <c r="C314" s="8" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D314" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="D314" s="6" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -9166,10 +9172,10 @@
         <v>629</v>
       </c>
       <c r="C315" s="8" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D315" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="D315" s="6" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -9180,10 +9186,10 @@
         <v>631</v>
       </c>
       <c r="C316" s="8" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D316" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="D316" s="6" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -9194,10 +9200,10 @@
         <v>633</v>
       </c>
       <c r="C317" s="8" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D317" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="D317" s="6" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -9208,10 +9214,10 @@
         <v>635</v>
       </c>
       <c r="C318" s="8" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D318" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="D318" s="6" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -9222,10 +9228,10 @@
         <v>637</v>
       </c>
       <c r="C319" s="8" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D319" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="D319" s="6" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -9236,10 +9242,10 @@
         <v>639</v>
       </c>
       <c r="C320" s="8" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D320" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="D320" s="6" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -9250,10 +9256,10 @@
         <v>641</v>
       </c>
       <c r="C321" s="8" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D321" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="D321" s="6" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -9264,10 +9270,10 @@
         <v>643</v>
       </c>
       <c r="C322" s="8" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D322" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="D322" s="6" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -9278,10 +9284,10 @@
         <v>645</v>
       </c>
       <c r="C323" s="8" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D323" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="D323" s="6" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="324" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -9292,10 +9298,10 @@
         <v>647</v>
       </c>
       <c r="C324" s="8" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D324" s="6" t="s">
         <v>1340</v>
-      </c>
-      <c r="D324" s="6" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="325" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -9306,10 +9312,10 @@
         <v>649</v>
       </c>
       <c r="C325" s="8" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D325" s="6" t="s">
         <v>1342</v>
-      </c>
-      <c r="D325" s="6" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -9320,10 +9326,10 @@
         <v>651</v>
       </c>
       <c r="C326" s="8" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D326" s="6" t="s">
         <v>1342</v>
-      </c>
-      <c r="D326" s="6" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="327" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -9334,10 +9340,10 @@
         <v>653</v>
       </c>
       <c r="C327" s="8" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D327" s="6" t="s">
         <v>1342</v>
-      </c>
-      <c r="D327" s="6" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="328" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -9348,10 +9354,10 @@
         <v>655</v>
       </c>
       <c r="C328" s="8" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D328" s="6" t="s">
         <v>1342</v>
-      </c>
-      <c r="D328" s="6" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="329" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -9362,10 +9368,10 @@
         <v>657</v>
       </c>
       <c r="C329" s="8" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D329" s="6" t="s">
         <v>1342</v>
-      </c>
-      <c r="D329" s="6" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="330" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -9376,10 +9382,10 @@
         <v>659</v>
       </c>
       <c r="C330" s="8" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D330" s="6" t="s">
         <v>1342</v>
-      </c>
-      <c r="D330" s="6" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="331" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
@@ -9390,10 +9396,10 @@
         <v>661</v>
       </c>
       <c r="C331" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D331" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D331" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="332" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -9404,10 +9410,10 @@
         <v>663</v>
       </c>
       <c r="C332" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D332" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D332" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="333" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -9418,10 +9424,10 @@
         <v>665</v>
       </c>
       <c r="C333" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D333" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D333" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="334" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -9432,10 +9438,10 @@
         <v>667</v>
       </c>
       <c r="C334" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D334" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D334" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="335" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -9446,10 +9452,10 @@
         <v>669</v>
       </c>
       <c r="C335" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D335" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D335" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="336" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -9460,10 +9466,10 @@
         <v>671</v>
       </c>
       <c r="C336" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D336" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D336" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="337" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -9474,10 +9480,10 @@
         <v>673</v>
       </c>
       <c r="C337" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D337" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D337" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="338" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -9488,10 +9494,10 @@
         <v>675</v>
       </c>
       <c r="C338" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D338" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D338" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="339" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -9502,10 +9508,10 @@
         <v>677</v>
       </c>
       <c r="C339" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D339" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D339" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="340" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -9516,10 +9522,10 @@
         <v>679</v>
       </c>
       <c r="C340" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D340" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D340" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -9530,10 +9536,10 @@
         <v>681</v>
       </c>
       <c r="C341" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D341" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D341" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -9544,10 +9550,10 @@
         <v>683</v>
       </c>
       <c r="C342" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D342" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D342" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="343" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -9558,10 +9564,10 @@
         <v>685</v>
       </c>
       <c r="C343" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D343" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D343" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -9572,10 +9578,10 @@
         <v>687</v>
       </c>
       <c r="C344" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D344" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D344" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -9586,10 +9592,10 @@
         <v>689</v>
       </c>
       <c r="C345" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D345" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D345" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="346" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -9600,10 +9606,10 @@
         <v>691</v>
       </c>
       <c r="C346" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D346" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D346" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -9614,10 +9620,10 @@
         <v>693</v>
       </c>
       <c r="C347" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D347" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D347" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -9628,10 +9634,10 @@
         <v>695</v>
       </c>
       <c r="C348" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D348" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D348" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="349" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -9642,10 +9648,10 @@
         <v>697</v>
       </c>
       <c r="C349" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D349" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D349" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="350" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -9656,10 +9662,10 @@
         <v>699</v>
       </c>
       <c r="C350" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D350" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D350" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="351" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -9670,10 +9676,10 @@
         <v>701</v>
       </c>
       <c r="C351" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D351" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D351" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="352" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -9684,10 +9690,10 @@
         <v>703</v>
       </c>
       <c r="C352" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D352" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D352" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -9698,10 +9704,10 @@
         <v>705</v>
       </c>
       <c r="C353" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D353" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D353" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -9712,10 +9718,10 @@
         <v>707</v>
       </c>
       <c r="C354" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D354" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D354" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="355" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -9726,10 +9732,10 @@
         <v>709</v>
       </c>
       <c r="C355" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D355" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D355" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="356" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -9740,10 +9746,10 @@
         <v>711</v>
       </c>
       <c r="C356" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D356" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D356" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="357" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -9754,10 +9760,10 @@
         <v>713</v>
       </c>
       <c r="C357" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D357" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D357" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="358" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -9768,10 +9774,10 @@
         <v>715</v>
       </c>
       <c r="C358" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D358" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D358" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="359" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -9782,10 +9788,10 @@
         <v>717</v>
       </c>
       <c r="C359" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D359" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D359" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="360" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -9796,10 +9802,10 @@
         <v>719</v>
       </c>
       <c r="C360" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D360" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D360" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="361" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -9810,10 +9816,10 @@
         <v>721</v>
       </c>
       <c r="C361" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D361" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D361" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="362" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -9824,10 +9830,10 @@
         <v>723</v>
       </c>
       <c r="C362" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D362" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D362" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="363" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -9838,10 +9844,10 @@
         <v>725</v>
       </c>
       <c r="C363" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D363" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D363" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="364" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -9852,10 +9858,10 @@
         <v>727</v>
       </c>
       <c r="C364" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D364" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D364" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -9866,10 +9872,10 @@
         <v>729</v>
       </c>
       <c r="C365" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D365" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D365" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="366" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -9880,10 +9886,10 @@
         <v>731</v>
       </c>
       <c r="C366" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D366" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D366" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="367" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -9894,10 +9900,10 @@
         <v>733</v>
       </c>
       <c r="C367" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D367" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D367" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -9908,10 +9914,10 @@
         <v>735</v>
       </c>
       <c r="C368" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D368" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D368" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="369" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -9922,10 +9928,10 @@
         <v>737</v>
       </c>
       <c r="C369" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D369" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D369" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="370" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -9936,10 +9942,10 @@
         <v>739</v>
       </c>
       <c r="C370" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D370" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D370" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="371" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -9950,10 +9956,10 @@
         <v>741</v>
       </c>
       <c r="C371" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D371" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D371" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="372" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -9964,10 +9970,10 @@
         <v>743</v>
       </c>
       <c r="C372" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D372" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D372" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="373" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -9978,10 +9984,10 @@
         <v>745</v>
       </c>
       <c r="C373" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D373" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D373" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="374" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -9992,10 +9998,10 @@
         <v>747</v>
       </c>
       <c r="C374" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D374" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D374" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -10006,10 +10012,10 @@
         <v>749</v>
       </c>
       <c r="C375" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D375" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D375" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="376" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10020,10 +10026,10 @@
         <v>751</v>
       </c>
       <c r="C376" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D376" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D376" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -10034,10 +10040,10 @@
         <v>753</v>
       </c>
       <c r="C377" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D377" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D377" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -10048,10 +10054,10 @@
         <v>755</v>
       </c>
       <c r="C378" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D378" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D378" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="379" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -10062,10 +10068,10 @@
         <v>757</v>
       </c>
       <c r="C379" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D379" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D379" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="380" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10076,10 +10082,10 @@
         <v>759</v>
       </c>
       <c r="C380" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D380" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D380" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="381" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10090,10 +10096,10 @@
         <v>761</v>
       </c>
       <c r="C381" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D381" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D381" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="382" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10104,10 +10110,10 @@
         <v>763</v>
       </c>
       <c r="C382" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D382" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D382" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="383" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10118,10 +10124,10 @@
         <v>765</v>
       </c>
       <c r="C383" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D383" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D383" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="384" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -10132,10 +10138,10 @@
         <v>767</v>
       </c>
       <c r="C384" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D384" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D384" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="385" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10146,10 +10152,10 @@
         <v>769</v>
       </c>
       <c r="C385" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D385" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D385" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="386" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10160,10 +10166,10 @@
         <v>771</v>
       </c>
       <c r="C386" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D386" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D386" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="387" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10174,10 +10180,10 @@
         <v>773</v>
       </c>
       <c r="C387" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D387" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D387" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="388" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10188,10 +10194,10 @@
         <v>775</v>
       </c>
       <c r="C388" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D388" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D388" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="389" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -10202,10 +10208,10 @@
         <v>777</v>
       </c>
       <c r="C389" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D389" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D389" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="390" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10216,10 +10222,10 @@
         <v>779</v>
       </c>
       <c r="C390" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D390" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D390" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="391" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10230,10 +10236,10 @@
         <v>781</v>
       </c>
       <c r="C391" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D391" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D391" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="392" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10244,10 +10250,10 @@
         <v>783</v>
       </c>
       <c r="C392" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D392" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D392" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="393" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10258,10 +10264,10 @@
         <v>785</v>
       </c>
       <c r="C393" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D393" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D393" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="394" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -10272,10 +10278,10 @@
         <v>787</v>
       </c>
       <c r="C394" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D394" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D394" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="395" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10286,10 +10292,10 @@
         <v>789</v>
       </c>
       <c r="C395" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D395" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D395" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="396" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -10300,10 +10306,10 @@
         <v>791</v>
       </c>
       <c r="C396" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D396" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D396" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="397" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10314,10 +10320,10 @@
         <v>793</v>
       </c>
       <c r="C397" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D397" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D397" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="398" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10328,10 +10334,10 @@
         <v>795</v>
       </c>
       <c r="C398" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D398" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D398" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="399" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10342,10 +10348,10 @@
         <v>797</v>
       </c>
       <c r="C399" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D399" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D399" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="400" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10356,10 +10362,10 @@
         <v>799</v>
       </c>
       <c r="C400" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D400" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D400" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="401" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10370,10 +10376,10 @@
         <v>801</v>
       </c>
       <c r="C401" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D401" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D401" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="402" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10384,10 +10390,10 @@
         <v>803</v>
       </c>
       <c r="C402" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D402" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D402" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="403" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10398,10 +10404,10 @@
         <v>805</v>
       </c>
       <c r="C403" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D403" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D403" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="404" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10412,10 +10418,10 @@
         <v>807</v>
       </c>
       <c r="C404" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D404" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D404" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="405" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -10426,10 +10432,10 @@
         <v>809</v>
       </c>
       <c r="C405" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D405" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D405" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="406" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10440,10 +10446,10 @@
         <v>811</v>
       </c>
       <c r="C406" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D406" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D406" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="407" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -10454,10 +10460,10 @@
         <v>813</v>
       </c>
       <c r="C407" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D407" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D407" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="408" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10468,10 +10474,10 @@
         <v>815</v>
       </c>
       <c r="C408" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D408" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D408" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="409" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10482,10 +10488,10 @@
         <v>817</v>
       </c>
       <c r="C409" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D409" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D409" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="410" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10496,10 +10502,10 @@
         <v>819</v>
       </c>
       <c r="C410" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D410" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D410" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="411" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -10510,10 +10516,10 @@
         <v>821</v>
       </c>
       <c r="C411" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D411" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D411" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="412" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10524,10 +10530,10 @@
         <v>823</v>
       </c>
       <c r="C412" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D412" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D412" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="413" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10538,10 +10544,10 @@
         <v>825</v>
       </c>
       <c r="C413" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D413" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D413" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="414" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10552,10 +10558,10 @@
         <v>827</v>
       </c>
       <c r="C414" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D414" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D414" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="415" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10566,10 +10572,10 @@
         <v>829</v>
       </c>
       <c r="C415" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D415" s="6" t="s">
         <v>1344</v>
-      </c>
-      <c r="D415" s="6" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -10580,10 +10586,10 @@
         <v>831</v>
       </c>
       <c r="C416" s="8" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D416" s="6" t="s">
         <v>1346</v>
-      </c>
-      <c r="D416" s="6" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -10594,10 +10600,10 @@
         <v>833</v>
       </c>
       <c r="C417" s="8" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D417" s="6" t="s">
         <v>1346</v>
-      </c>
-      <c r="D417" s="6" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="418" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10608,10 +10614,10 @@
         <v>835</v>
       </c>
       <c r="C418" s="8" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D418" s="6" t="s">
         <v>1348</v>
-      </c>
-      <c r="D418" s="6" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -10622,10 +10628,10 @@
         <v>837</v>
       </c>
       <c r="C419" s="8" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D419" s="6" t="s">
         <v>1348</v>
-      </c>
-      <c r="D419" s="6" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="420" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10636,10 +10642,10 @@
         <v>839</v>
       </c>
       <c r="C420" s="8" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D420" s="6" t="s">
         <v>1348</v>
-      </c>
-      <c r="D420" s="6" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -10650,10 +10656,10 @@
         <v>841</v>
       </c>
       <c r="C421" s="8" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D421" s="6" t="s">
         <v>1348</v>
-      </c>
-      <c r="D421" s="6" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
@@ -10664,10 +10670,10 @@
         <v>843</v>
       </c>
       <c r="C422" s="8" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D422" s="6" t="s">
         <v>1348</v>
-      </c>
-      <c r="D422" s="6" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
@@ -10678,10 +10684,10 @@
         <v>845</v>
       </c>
       <c r="C423" s="8" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D423" s="6" t="s">
         <v>1348</v>
-      </c>
-      <c r="D423" s="6" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="424" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10692,10 +10698,10 @@
         <v>847</v>
       </c>
       <c r="C424" s="8" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D424" s="6" t="s">
         <v>1350</v>
-      </c>
-      <c r="D424" s="6" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="425" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10706,10 +10712,10 @@
         <v>849</v>
       </c>
       <c r="C425" s="8" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D425" s="6" t="s">
         <v>1350</v>
-      </c>
-      <c r="D425" s="6" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -10720,10 +10726,10 @@
         <v>851</v>
       </c>
       <c r="C426" s="8" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D426" s="6" t="s">
         <v>1350</v>
-      </c>
-      <c r="D426" s="6" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -10734,10 +10740,10 @@
         <v>853</v>
       </c>
       <c r="C427" s="8" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D427" s="6" t="s">
         <v>1350</v>
-      </c>
-      <c r="D427" s="6" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -10748,10 +10754,10 @@
         <v>855</v>
       </c>
       <c r="C428" s="8" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D428" s="6" t="s">
         <v>1352</v>
-      </c>
-      <c r="D428" s="6" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -10762,10 +10768,10 @@
         <v>857</v>
       </c>
       <c r="C429" s="8" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D429" s="6" t="s">
         <v>1352</v>
-      </c>
-      <c r="D429" s="6" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
@@ -10776,10 +10782,10 @@
         <v>859</v>
       </c>
       <c r="C430" s="8" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D430" s="6" t="s">
         <v>1352</v>
-      </c>
-      <c r="D430" s="6" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
@@ -10790,10 +10796,10 @@
         <v>861</v>
       </c>
       <c r="C431" s="8" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D431" s="6" t="s">
         <v>1354</v>
-      </c>
-      <c r="D431" s="6" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="432" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10804,10 +10810,10 @@
         <v>863</v>
       </c>
       <c r="C432" s="8" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D432" s="6" t="s">
         <v>1354</v>
-      </c>
-      <c r="D432" s="6" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="433" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10818,10 +10824,10 @@
         <v>865</v>
       </c>
       <c r="C433" s="8" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D433" s="6" t="s">
         <v>1354</v>
-      </c>
-      <c r="D433" s="6" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="434" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10832,10 +10838,10 @@
         <v>867</v>
       </c>
       <c r="C434" s="8" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D434" s="6" t="s">
         <v>1354</v>
-      </c>
-      <c r="D434" s="6" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -10846,10 +10852,10 @@
         <v>869</v>
       </c>
       <c r="C435" s="8" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D435" s="6" t="s">
         <v>1354</v>
-      </c>
-      <c r="D435" s="6" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="436" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10860,10 +10866,10 @@
         <v>871</v>
       </c>
       <c r="C436" s="8" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D436" s="6" t="s">
         <v>1354</v>
-      </c>
-      <c r="D436" s="6" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="437" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10874,10 +10880,10 @@
         <v>873</v>
       </c>
       <c r="C437" s="8" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D437" s="6" t="s">
         <v>1356</v>
-      </c>
-      <c r="D437" s="6" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -10888,10 +10894,10 @@
         <v>875</v>
       </c>
       <c r="C438" s="8" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D438" s="6" t="s">
         <v>1356</v>
-      </c>
-      <c r="D438" s="6" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -10902,10 +10908,10 @@
         <v>877</v>
       </c>
       <c r="C439" s="8" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D439" s="6" t="s">
         <v>1358</v>
-      </c>
-      <c r="D439" s="6" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="440" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10916,10 +10922,10 @@
         <v>879</v>
       </c>
       <c r="C440" s="8" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D440" s="6" t="s">
         <v>1358</v>
-      </c>
-      <c r="D440" s="6" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="441" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10930,10 +10936,10 @@
         <v>881</v>
       </c>
       <c r="C441" s="8" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D441" s="6" t="s">
         <v>1358</v>
-      </c>
-      <c r="D441" s="6" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -10944,10 +10950,10 @@
         <v>883</v>
       </c>
       <c r="C442" s="8" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D442" s="6" t="s">
         <v>1358</v>
-      </c>
-      <c r="D442" s="6" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="443" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -10958,10 +10964,10 @@
         <v>885</v>
       </c>
       <c r="C443" s="8" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D443" s="6" t="s">
         <v>1360</v>
-      </c>
-      <c r="D443" s="6" t="s">
-        <v>1361</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -10972,10 +10978,10 @@
         <v>887</v>
       </c>
       <c r="C444" s="8" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D444" s="6" t="s">
         <v>1360</v>
-      </c>
-      <c r="D444" s="6" t="s">
-        <v>1361</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -10986,10 +10992,10 @@
         <v>889</v>
       </c>
       <c r="C445" s="8" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D445" s="6" t="s">
         <v>1360</v>
-      </c>
-      <c r="D445" s="6" t="s">
-        <v>1361</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -11000,10 +11006,10 @@
         <v>891</v>
       </c>
       <c r="C446" s="8" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D446" s="6" t="s">
         <v>1360</v>
-      </c>
-      <c r="D446" s="6" t="s">
-        <v>1361</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -11014,10 +11020,10 @@
         <v>893</v>
       </c>
       <c r="C447" s="8" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D447" s="6" t="s">
         <v>1362</v>
-      </c>
-      <c r="D447" s="6" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="448" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -11028,10 +11034,10 @@
         <v>895</v>
       </c>
       <c r="C448" s="8" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D448" s="6" t="s">
         <v>1362</v>
-      </c>
-      <c r="D448" s="6" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -11042,10 +11048,10 @@
         <v>897</v>
       </c>
       <c r="C449" s="8" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D449" s="6" t="s">
         <v>1362</v>
-      </c>
-      <c r="D449" s="6" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="450" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -11056,10 +11062,10 @@
         <v>899</v>
       </c>
       <c r="C450" s="8" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D450" s="6" t="s">
         <v>1362</v>
-      </c>
-      <c r="D450" s="6" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -11070,10 +11076,10 @@
         <v>901</v>
       </c>
       <c r="C451" s="8" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D451" s="6" t="s">
         <v>1362</v>
-      </c>
-      <c r="D451" s="6" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -11084,10 +11090,10 @@
         <v>903</v>
       </c>
       <c r="C452" s="8" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D452" s="6" t="s">
         <v>1362</v>
-      </c>
-      <c r="D452" s="6" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -11098,10 +11104,10 @@
         <v>905</v>
       </c>
       <c r="C453" s="8" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D453" s="6" t="s">
         <v>1362</v>
-      </c>
-      <c r="D453" s="6" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="454" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -11112,10 +11118,10 @@
         <v>907</v>
       </c>
       <c r="C454" s="8" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D454" s="6" t="s">
         <v>1364</v>
-      </c>
-      <c r="D454" s="6" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="455" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -11126,10 +11132,10 @@
         <v>909</v>
       </c>
       <c r="C455" s="8" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D455" s="6" t="s">
         <v>1364</v>
-      </c>
-      <c r="D455" s="6" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="456" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -11140,10 +11146,10 @@
         <v>911</v>
       </c>
       <c r="C456" s="8" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D456" s="6" t="s">
         <v>1364</v>
-      </c>
-      <c r="D456" s="6" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -11154,10 +11160,10 @@
         <v>913</v>
       </c>
       <c r="C457" s="8" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D457" s="6" t="s">
         <v>1364</v>
-      </c>
-      <c r="D457" s="6" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="458" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -11168,10 +11174,10 @@
         <v>915</v>
       </c>
       <c r="C458" s="8" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D458" s="6" t="s">
         <v>1364</v>
-      </c>
-      <c r="D458" s="6" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -11182,10 +11188,10 @@
         <v>917</v>
       </c>
       <c r="C459" s="8" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D459" s="6" t="s">
         <v>1364</v>
-      </c>
-      <c r="D459" s="6" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="460" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -11196,10 +11202,10 @@
         <v>919</v>
       </c>
       <c r="C460" s="8" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D460" s="6" t="s">
         <v>1364</v>
-      </c>
-      <c r="D460" s="6" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="461" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -11210,10 +11216,10 @@
         <v>921</v>
       </c>
       <c r="C461" s="8" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D461" s="6" t="s">
         <v>1366</v>
-      </c>
-      <c r="D461" s="6" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="462" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -11224,10 +11230,10 @@
         <v>923</v>
       </c>
       <c r="C462" s="8" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D462" s="6" t="s">
         <v>1366</v>
-      </c>
-      <c r="D462" s="6" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="463" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -11238,10 +11244,10 @@
         <v>925</v>
       </c>
       <c r="C463" s="8" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D463" s="6" t="s">
         <v>1366</v>
-      </c>
-      <c r="D463" s="6" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="464" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -11252,10 +11258,10 @@
         <v>927</v>
       </c>
       <c r="C464" s="8" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D464" s="6" t="s">
         <v>1366</v>
-      </c>
-      <c r="D464" s="6" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
@@ -11266,10 +11272,10 @@
         <v>929</v>
       </c>
       <c r="C465" s="8" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D465" s="6" t="s">
         <v>1368</v>
-      </c>
-      <c r="D465" s="6" t="s">
-        <v>1369</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
@@ -11280,10 +11286,10 @@
         <v>931</v>
       </c>
       <c r="C466" s="8" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D466" s="6" t="s">
         <v>1368</v>
-      </c>
-      <c r="D466" s="6" t="s">
-        <v>1369</v>
       </c>
     </row>
     <row r="467" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -11294,10 +11300,10 @@
         <v>933</v>
       </c>
       <c r="C467" s="8" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D467" s="6" t="s">
         <v>1368</v>
-      </c>
-      <c r="D467" s="6" t="s">
-        <v>1369</v>
       </c>
     </row>
     <row r="468" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -11308,10 +11314,10 @@
         <v>935</v>
       </c>
       <c r="C468" s="8" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D468" s="6" t="s">
         <v>1368</v>
-      </c>
-      <c r="D468" s="6" t="s">
-        <v>1369</v>
       </c>
     </row>
     <row r="469" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -11322,10 +11328,10 @@
         <v>937</v>
       </c>
       <c r="C469" s="8" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D469" s="6" t="s">
         <v>1370</v>
-      </c>
-      <c r="D469" s="6" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -11336,10 +11342,10 @@
         <v>939</v>
       </c>
       <c r="C470" s="8" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D470" s="6" t="s">
         <v>1370</v>
-      </c>
-      <c r="D470" s="6" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -11350,10 +11356,10 @@
         <v>941</v>
       </c>
       <c r="C471" s="8" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D471" s="6" t="s">
         <v>1370</v>
-      </c>
-      <c r="D471" s="6" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="472" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -11364,10 +11370,10 @@
         <v>943</v>
       </c>
       <c r="C472" s="8" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D472" s="6" t="s">
         <v>1370</v>
-      </c>
-      <c r="D472" s="6" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -11378,10 +11384,10 @@
         <v>945</v>
       </c>
       <c r="C473" s="8" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D473" s="6" t="s">
         <v>1372</v>
-      </c>
-      <c r="D473" s="6" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -11392,10 +11398,10 @@
         <v>947</v>
       </c>
       <c r="C474" s="8" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D474" s="6" t="s">
         <v>1372</v>
-      </c>
-      <c r="D474" s="6" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="475" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -11406,10 +11412,10 @@
         <v>949</v>
       </c>
       <c r="C475" s="8" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D475" s="6" t="s">
         <v>1372</v>
-      </c>
-      <c r="D475" s="6" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="476" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -11420,10 +11426,10 @@
         <v>951</v>
       </c>
       <c r="C476" s="8" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D476" s="6" t="s">
         <v>1372</v>
-      </c>
-      <c r="D476" s="6" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -11434,10 +11440,10 @@
         <v>953</v>
       </c>
       <c r="C477" s="8" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D477" s="6" t="s">
         <v>1372</v>
-      </c>
-      <c r="D477" s="6" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -11448,10 +11454,10 @@
         <v>955</v>
       </c>
       <c r="C478" s="8" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D478" s="6" t="s">
         <v>1372</v>
-      </c>
-      <c r="D478" s="6" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="479" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -11462,10 +11468,10 @@
         <v>957</v>
       </c>
       <c r="C479" s="8" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D479" s="6" t="s">
         <v>1372</v>
-      </c>
-      <c r="D479" s="6" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -11476,10 +11482,10 @@
         <v>959</v>
       </c>
       <c r="C480" s="8" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D480" s="6" t="s">
         <v>1374</v>
-      </c>
-      <c r="D480" s="6" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -11490,10 +11496,10 @@
         <v>961</v>
       </c>
       <c r="C481" s="8" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D481" s="6" t="s">
         <v>1374</v>
-      </c>
-      <c r="D481" s="6" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -11504,10 +11510,10 @@
         <v>963</v>
       </c>
       <c r="C482" s="8" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D482" s="6" t="s">
         <v>1374</v>
-      </c>
-      <c r="D482" s="6" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -11518,10 +11524,10 @@
         <v>965</v>
       </c>
       <c r="C483" s="8" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D483" s="6" t="s">
         <v>1374</v>
-      </c>
-      <c r="D483" s="6" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -11532,10 +11538,10 @@
         <v>967</v>
       </c>
       <c r="C484" s="8" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D484" s="6" t="s">
         <v>1376</v>
-      </c>
-      <c r="D484" s="6" t="s">
-        <v>1377</v>
       </c>
     </row>
     <row r="485" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -11546,10 +11552,10 @@
         <v>969</v>
       </c>
       <c r="C485" s="8" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D485" s="6" t="s">
         <v>1376</v>
-      </c>
-      <c r="D485" s="6" t="s">
-        <v>1377</v>
       </c>
     </row>
     <row r="486" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -11560,10 +11566,10 @@
         <v>971</v>
       </c>
       <c r="C486" s="8" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D486" s="6" t="s">
         <v>1376</v>
-      </c>
-      <c r="D486" s="6" t="s">
-        <v>1377</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -11574,10 +11580,10 @@
         <v>973</v>
       </c>
       <c r="C487" s="8" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D487" s="6" t="s">
         <v>1376</v>
-      </c>
-      <c r="D487" s="6" t="s">
-        <v>1377</v>
       </c>
     </row>
     <row r="488" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -11588,10 +11594,10 @@
         <v>975</v>
       </c>
       <c r="C488" s="8" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D488" s="6" t="s">
         <v>1376</v>
-      </c>
-      <c r="D488" s="6" t="s">
-        <v>1377</v>
       </c>
     </row>
     <row r="489" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -11602,10 +11608,10 @@
         <v>977</v>
       </c>
       <c r="C489" s="8" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D489" s="6" t="s">
         <v>1376</v>
-      </c>
-      <c r="D489" s="6" t="s">
-        <v>1377</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -11616,10 +11622,10 @@
         <v>979</v>
       </c>
       <c r="C490" s="8" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D490" s="6" t="s">
         <v>1376</v>
-      </c>
-      <c r="D490" s="6" t="s">
-        <v>1377</v>
       </c>
     </row>
     <row r="491" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -11630,10 +11636,10 @@
         <v>981</v>
       </c>
       <c r="C491" s="8" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D491" s="6" t="s">
         <v>1378</v>
-      </c>
-      <c r="D491" s="6" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="492" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -11644,10 +11650,10 @@
         <v>983</v>
       </c>
       <c r="C492" s="8" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D492" s="6" t="s">
         <v>1378</v>
-      </c>
-      <c r="D492" s="6" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -11658,10 +11664,10 @@
         <v>985</v>
       </c>
       <c r="C493" s="8" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D493" s="6" t="s">
         <v>1380</v>
-      </c>
-      <c r="D493" s="6" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="494" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -11672,10 +11678,10 @@
         <v>987</v>
       </c>
       <c r="C494" s="8" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D494" s="6" t="s">
         <v>1380</v>
-      </c>
-      <c r="D494" s="6" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
@@ -11686,10 +11692,10 @@
         <v>989</v>
       </c>
       <c r="C495" s="8" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D495" s="6" t="s">
         <v>1382</v>
-      </c>
-      <c r="D495" s="6" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="496" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -11700,10 +11706,10 @@
         <v>991</v>
       </c>
       <c r="C496" s="8" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D496" s="6" t="s">
         <v>1384</v>
-      </c>
-      <c r="D496" s="6" t="s">
-        <v>1385</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -11714,10 +11720,10 @@
         <v>993</v>
       </c>
       <c r="C497" s="5" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D497" s="6" t="s">
         <v>1386</v>
-      </c>
-      <c r="D497" s="6" t="s">
-        <v>1387</v>
       </c>
     </row>
     <row r="498" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -11728,10 +11734,10 @@
         <v>995</v>
       </c>
       <c r="C498" s="5" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D498" s="6" t="s">
         <v>1386</v>
-      </c>
-      <c r="D498" s="6" t="s">
-        <v>1387</v>
       </c>
     </row>
     <row r="499" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -11742,10 +11748,10 @@
         <v>997</v>
       </c>
       <c r="C499" s="5" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D499" s="6" t="s">
         <v>1386</v>
-      </c>
-      <c r="D499" s="6" t="s">
-        <v>1387</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
@@ -11756,10 +11762,10 @@
         <v>999</v>
       </c>
       <c r="C500" s="8" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D500" s="6" t="s">
         <v>1388</v>
-      </c>
-      <c r="D500" s="6" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="501" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -11770,10 +11776,10 @@
         <v>1001</v>
       </c>
       <c r="C501" s="8" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D501" s="6" t="s">
         <v>1388</v>
-      </c>
-      <c r="D501" s="6" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -11784,10 +11790,10 @@
         <v>1003</v>
       </c>
       <c r="C502" s="8" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D502" s="6" t="s">
         <v>1388</v>
-      </c>
-      <c r="D502" s="6" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="503" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -11798,10 +11804,10 @@
         <v>1005</v>
       </c>
       <c r="C503" s="8" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D503" s="6" t="s">
         <v>1390</v>
-      </c>
-      <c r="D503" s="6" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="504" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -11812,10 +11818,10 @@
         <v>1007</v>
       </c>
       <c r="C504" s="8" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D504" s="6" t="s">
         <v>1390</v>
-      </c>
-      <c r="D504" s="6" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="505" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -11826,10 +11832,10 @@
         <v>1009</v>
       </c>
       <c r="C505" s="8" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D505" s="6" t="s">
         <v>1390</v>
-      </c>
-      <c r="D505" s="6" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
@@ -11840,10 +11846,10 @@
         <v>1011</v>
       </c>
       <c r="C506" s="8" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D506" s="6" t="s">
         <v>1392</v>
-      </c>
-      <c r="D506" s="6" t="s">
-        <v>1393</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
@@ -11854,10 +11860,10 @@
         <v>1013</v>
       </c>
       <c r="C507" s="8" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D507" s="6" t="s">
         <v>1392</v>
-      </c>
-      <c r="D507" s="6" t="s">
-        <v>1393</v>
       </c>
     </row>
     <row r="508" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -11868,10 +11874,10 @@
         <v>1015</v>
       </c>
       <c r="C508" s="8" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D508" s="6" t="s">
         <v>1392</v>
-      </c>
-      <c r="D508" s="6" t="s">
-        <v>1393</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
@@ -11882,10 +11888,10 @@
         <v>1017</v>
       </c>
       <c r="C509" s="8" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D509" s="6" t="s">
         <v>1394</v>
-      </c>
-      <c r="D509" s="6" t="s">
-        <v>1395</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
@@ -11896,10 +11902,10 @@
         <v>1019</v>
       </c>
       <c r="C510" s="8" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D510" s="6" t="s">
         <v>1394</v>
-      </c>
-      <c r="D510" s="6" t="s">
-        <v>1395</v>
       </c>
     </row>
     <row r="511" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -11910,10 +11916,10 @@
         <v>1021</v>
       </c>
       <c r="C511" s="8" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D511" s="6" t="s">
         <v>1394</v>
-      </c>
-      <c r="D511" s="6" t="s">
-        <v>1395</v>
       </c>
     </row>
     <row r="512" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -11924,10 +11930,10 @@
         <v>1023</v>
       </c>
       <c r="C512" s="8" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D512" s="6" t="s">
         <v>1394</v>
-      </c>
-      <c r="D512" s="6" t="s">
-        <v>1395</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
@@ -11938,10 +11944,10 @@
         <v>1025</v>
       </c>
       <c r="C513" s="8" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D513" s="6" t="s">
         <v>1396</v>
-      </c>
-      <c r="D513" s="6" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="514" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -11952,10 +11958,10 @@
         <v>1027</v>
       </c>
       <c r="C514" s="8" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D514" s="6" t="s">
         <v>1398</v>
-      </c>
-      <c r="D514" s="6" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
@@ -11966,10 +11972,10 @@
         <v>1029</v>
       </c>
       <c r="C515" s="8" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D515" s="6" t="s">
         <v>1398</v>
-      </c>
-      <c r="D515" s="6" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="516" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -11980,10 +11986,10 @@
         <v>1031</v>
       </c>
       <c r="C516" s="8" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D516" s="6" t="s">
         <v>1398</v>
-      </c>
-      <c r="D516" s="6" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
@@ -11994,10 +12000,10 @@
         <v>1033</v>
       </c>
       <c r="C517" s="8" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D517" s="6" t="s">
         <v>1398</v>
-      </c>
-      <c r="D517" s="6" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="518" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -12008,10 +12014,10 @@
         <v>1035</v>
       </c>
       <c r="C518" s="8" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D518" s="6" t="s">
         <v>1398</v>
-      </c>
-      <c r="D518" s="6" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="519" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -12022,10 +12028,10 @@
         <v>1037</v>
       </c>
       <c r="C519" s="8" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D519" s="6" t="s">
         <v>1398</v>
-      </c>
-      <c r="D519" s="6" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="520" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -12036,10 +12042,10 @@
         <v>1039</v>
       </c>
       <c r="C520" s="8" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D520" s="6" t="s">
         <v>1398</v>
-      </c>
-      <c r="D520" s="6" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="521" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -12050,10 +12056,10 @@
         <v>1041</v>
       </c>
       <c r="C521" s="8" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D521" s="6" t="s">
         <v>1398</v>
-      </c>
-      <c r="D521" s="6" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="522" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -12064,10 +12070,10 @@
         <v>1043</v>
       </c>
       <c r="C522" s="8" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D522" s="6" t="s">
         <v>1398</v>
-      </c>
-      <c r="D522" s="6" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="523" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -12078,10 +12084,10 @@
         <v>1045</v>
       </c>
       <c r="C523" s="8" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D523" s="6" t="s">
         <v>1398</v>
-      </c>
-      <c r="D523" s="6" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="524" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -12092,10 +12098,10 @@
         <v>1047</v>
       </c>
       <c r="C524" s="8" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D524" s="6" t="s">
         <v>1398</v>
-      </c>
-      <c r="D524" s="6" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="525" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -12106,10 +12112,10 @@
         <v>1049</v>
       </c>
       <c r="C525" s="8" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D525" s="6" t="s">
         <v>1398</v>
-      </c>
-      <c r="D525" s="6" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="526" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -12120,10 +12126,10 @@
         <v>1051</v>
       </c>
       <c r="C526" s="8" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D526" s="6" t="s">
         <v>1400</v>
-      </c>
-      <c r="D526" s="6" t="s">
-        <v>1401</v>
       </c>
     </row>
     <row r="527" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -12134,10 +12140,10 @@
         <v>1053</v>
       </c>
       <c r="C527" s="8" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D527" s="6" t="s">
         <v>1400</v>
-      </c>
-      <c r="D527" s="6" t="s">
-        <v>1401</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
@@ -12148,10 +12154,10 @@
         <v>1055</v>
       </c>
       <c r="C528" s="8" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D528" s="6" t="s">
         <v>1400</v>
-      </c>
-      <c r="D528" s="6" t="s">
-        <v>1401</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
@@ -12162,10 +12168,10 @@
         <v>1057</v>
       </c>
       <c r="C529" s="8" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D529" s="6" t="s">
         <v>1402</v>
-      </c>
-      <c r="D529" s="6" t="s">
-        <v>1403</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
@@ -12176,10 +12182,10 @@
         <v>1059</v>
       </c>
       <c r="C530" s="8" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D530" s="6" t="s">
         <v>1402</v>
-      </c>
-      <c r="D530" s="6" t="s">
-        <v>1403</v>
       </c>
     </row>
     <row r="531" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -12190,10 +12196,10 @@
         <v>1061</v>
       </c>
       <c r="C531" s="8" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D531" s="6" t="s">
         <v>1402</v>
-      </c>
-      <c r="D531" s="6" t="s">
-        <v>1403</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
@@ -12204,10 +12210,10 @@
         <v>1063</v>
       </c>
       <c r="C532" s="8" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D532" s="6" t="s">
         <v>1404</v>
-      </c>
-      <c r="D532" s="6" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
@@ -12218,10 +12224,10 @@
         <v>1065</v>
       </c>
       <c r="C533" s="8" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D533" s="6" t="s">
         <v>1404</v>
-      </c>
-      <c r="D533" s="6" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
@@ -12232,10 +12238,10 @@
         <v>1067</v>
       </c>
       <c r="C534" s="8" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D534" s="6" t="s">
         <v>1404</v>
-      </c>
-      <c r="D534" s="6" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="535" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -12246,10 +12252,10 @@
         <v>1069</v>
       </c>
       <c r="C535" s="8" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D535" s="6" t="s">
         <v>1406</v>
-      </c>
-      <c r="D535" s="6" t="s">
-        <v>1407</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
@@ -12260,10 +12266,10 @@
         <v>1071</v>
       </c>
       <c r="C536" s="8" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D536" s="6" t="s">
         <v>1406</v>
-      </c>
-      <c r="D536" s="6" t="s">
-        <v>1407</v>
       </c>
     </row>
     <row r="537" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -12274,10 +12280,10 @@
         <v>1073</v>
       </c>
       <c r="C537" s="8" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D537" s="6" t="s">
         <v>1406</v>
-      </c>
-      <c r="D537" s="6" t="s">
-        <v>1407</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
@@ -12288,10 +12294,10 @@
         <v>1075</v>
       </c>
       <c r="C538" s="8" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D538" s="6" t="s">
         <v>1406</v>
-      </c>
-      <c r="D538" s="6" t="s">
-        <v>1407</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
@@ -12302,10 +12308,10 @@
         <v>1077</v>
       </c>
       <c r="C539" s="8" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D539" s="6" t="s">
         <v>1406</v>
-      </c>
-      <c r="D539" s="6" t="s">
-        <v>1407</v>
       </c>
     </row>
     <row r="540" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -12316,10 +12322,10 @@
         <v>1079</v>
       </c>
       <c r="C540" s="8" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D540" s="6" t="s">
         <v>1408</v>
-      </c>
-      <c r="D540" s="6" t="s">
-        <v>1409</v>
       </c>
     </row>
     <row r="541" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -12330,10 +12336,10 @@
         <v>1081</v>
       </c>
       <c r="C541" s="8" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D541" s="6" t="s">
         <v>1408</v>
-      </c>
-      <c r="D541" s="6" t="s">
-        <v>1409</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
@@ -12344,10 +12350,10 @@
         <v>1083</v>
       </c>
       <c r="C542" s="8" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D542" s="6" t="s">
         <v>1408</v>
-      </c>
-      <c r="D542" s="6" t="s">
-        <v>1409</v>
       </c>
     </row>
     <row r="543" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -12358,10 +12364,10 @@
         <v>1085</v>
       </c>
       <c r="C543" s="8" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D543" s="6" t="s">
         <v>1408</v>
-      </c>
-      <c r="D543" s="6" t="s">
-        <v>1409</v>
       </c>
     </row>
     <row r="544" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -12372,10 +12378,10 @@
         <v>1087</v>
       </c>
       <c r="C544" s="8" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D544" s="6" t="s">
         <v>1408</v>
-      </c>
-      <c r="D544" s="6" t="s">
-        <v>1409</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
@@ -12386,10 +12392,10 @@
         <v>1089</v>
       </c>
       <c r="C545" s="8" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D545" s="6" t="s">
         <v>1408</v>
-      </c>
-      <c r="D545" s="6" t="s">
-        <v>1409</v>
       </c>
     </row>
     <row r="546" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -12400,10 +12406,10 @@
         <v>1091</v>
       </c>
       <c r="C546" s="8" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D546" s="6" t="s">
         <v>1408</v>
-      </c>
-      <c r="D546" s="6" t="s">
-        <v>1409</v>
       </c>
     </row>
     <row r="547" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -12414,10 +12420,10 @@
         <v>1093</v>
       </c>
       <c r="C547" s="8" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D547" s="6" t="s">
         <v>1410</v>
-      </c>
-      <c r="D547" s="6" t="s">
-        <v>1411</v>
       </c>
     </row>
     <row r="548" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
@@ -12428,10 +12434,10 @@
         <v>1095</v>
       </c>
       <c r="C548" s="8" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D548" s="6" t="s">
         <v>1410</v>
-      </c>
-      <c r="D548" s="6" t="s">
-        <v>1411</v>
       </c>
     </row>
     <row r="549" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -12442,10 +12448,10 @@
         <v>1097</v>
       </c>
       <c r="C549" s="8" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D549" s="6" t="s">
         <v>1410</v>
-      </c>
-      <c r="D549" s="6" t="s">
-        <v>1411</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
@@ -12456,10 +12462,10 @@
         <v>1099</v>
       </c>
       <c r="C550" s="8" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D550" s="6" t="s">
         <v>1410</v>
-      </c>
-      <c r="D550" s="6" t="s">
-        <v>1411</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
@@ -12470,10 +12476,10 @@
         <v>1101</v>
       </c>
       <c r="C551" s="8" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D551" s="6" t="s">
         <v>1410</v>
-      </c>
-      <c r="D551" s="6" t="s">
-        <v>1411</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
@@ -12484,10 +12490,10 @@
         <v>1103</v>
       </c>
       <c r="C552" s="8" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D552" s="6" t="s">
         <v>1410</v>
-      </c>
-      <c r="D552" s="6" t="s">
-        <v>1411</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
@@ -12498,10 +12504,10 @@
         <v>1105</v>
       </c>
       <c r="C553" s="8" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D553" s="6" t="s">
         <v>1410</v>
-      </c>
-      <c r="D553" s="6" t="s">
-        <v>1411</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
@@ -12512,10 +12518,10 @@
         <v>1107</v>
       </c>
       <c r="C554" s="8" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D554" s="6" t="s">
         <v>1410</v>
-      </c>
-      <c r="D554" s="6" t="s">
-        <v>1411</v>
       </c>
     </row>
     <row r="555" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -12526,10 +12532,10 @@
         <v>1109</v>
       </c>
       <c r="C555" s="8" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D555" s="6" t="s">
         <v>1410</v>
-      </c>
-      <c r="D555" s="6" t="s">
-        <v>1411</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
@@ -12540,10 +12546,10 @@
         <v>1111</v>
       </c>
       <c r="C556" s="8" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D556" s="6" t="s">
         <v>1412</v>
-      </c>
-      <c r="D556" s="6" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
@@ -12554,10 +12560,10 @@
         <v>1113</v>
       </c>
       <c r="C557" s="8" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D557" s="6" t="s">
         <v>1412</v>
-      </c>
-      <c r="D557" s="6" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
@@ -12568,10 +12574,10 @@
         <v>1115</v>
       </c>
       <c r="C558" s="8" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D558" s="6" t="s">
         <v>1412</v>
-      </c>
-      <c r="D558" s="6" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="559" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -12582,10 +12588,10 @@
         <v>1117</v>
       </c>
       <c r="C559" s="8" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D559" s="6" t="s">
         <v>1412</v>
-      </c>
-      <c r="D559" s="6" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="560" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -12596,10 +12602,10 @@
         <v>1119</v>
       </c>
       <c r="C560" s="8" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D560" s="6" t="s">
         <v>1412</v>
-      </c>
-      <c r="D560" s="6" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
@@ -12610,10 +12616,10 @@
         <v>1121</v>
       </c>
       <c r="C561" s="8" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D561" s="6" t="s">
         <v>1412</v>
-      </c>
-      <c r="D561" s="6" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
@@ -12624,10 +12630,10 @@
         <v>1123</v>
       </c>
       <c r="C562" s="8" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D562" s="6" t="s">
         <v>1412</v>
-      </c>
-      <c r="D562" s="6" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
@@ -12638,10 +12644,10 @@
         <v>1125</v>
       </c>
       <c r="C563" s="8" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D563" s="6" t="s">
         <v>1412</v>
-      </c>
-      <c r="D563" s="6" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
@@ -12652,10 +12658,10 @@
         <v>1127</v>
       </c>
       <c r="C564" s="8" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D564" s="6" t="s">
         <v>1412</v>
-      </c>
-      <c r="D564" s="6" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
@@ -12666,10 +12672,10 @@
         <v>1129</v>
       </c>
       <c r="C565" s="8" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D565" s="6" t="s">
         <v>1412</v>
-      </c>
-      <c r="D565" s="6" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
@@ -12680,10 +12686,10 @@
         <v>1131</v>
       </c>
       <c r="C566" s="8" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D566" s="6" t="s">
         <v>1412</v>
-      </c>
-      <c r="D566" s="6" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
@@ -12694,10 +12700,10 @@
         <v>1133</v>
       </c>
       <c r="C567" s="8" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D567" s="6" t="s">
         <v>1414</v>
-      </c>
-      <c r="D567" s="6" t="s">
-        <v>1415</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
@@ -12708,10 +12714,10 @@
         <v>1135</v>
       </c>
       <c r="C568" s="8" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D568" s="6" t="s">
         <v>1414</v>
-      </c>
-      <c r="D568" s="6" t="s">
-        <v>1415</v>
       </c>
     </row>
     <row r="569" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -12722,10 +12728,10 @@
         <v>1137</v>
       </c>
       <c r="C569" s="8" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D569" s="6" t="s">
         <v>1414</v>
-      </c>
-      <c r="D569" s="6" t="s">
-        <v>1415</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
@@ -12736,10 +12742,10 @@
         <v>1139</v>
       </c>
       <c r="C570" s="8" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D570" s="6" t="s">
         <v>1414</v>
-      </c>
-      <c r="D570" s="6" t="s">
-        <v>1415</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
@@ -12750,10 +12756,10 @@
         <v>1141</v>
       </c>
       <c r="C571" s="8" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D571" s="6" t="s">
         <v>1414</v>
-      </c>
-      <c r="D571" s="6" t="s">
-        <v>1415</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
@@ -12764,10 +12770,10 @@
         <v>1143</v>
       </c>
       <c r="C572" s="8" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D572" s="6" t="s">
         <v>1416</v>
-      </c>
-      <c r="D572" s="6" t="s">
-        <v>1417</v>
       </c>
     </row>
     <row r="573" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -12778,10 +12784,10 @@
         <v>1145</v>
       </c>
       <c r="C573" s="8" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D573" s="6" t="s">
         <v>1416</v>
-      </c>
-      <c r="D573" s="6" t="s">
-        <v>1417</v>
       </c>
     </row>
     <row r="574" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -12792,10 +12798,10 @@
         <v>1147</v>
       </c>
       <c r="C574" s="8" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D574" s="6" t="s">
         <v>1416</v>
-      </c>
-      <c r="D574" s="6" t="s">
-        <v>1417</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
@@ -12806,10 +12812,10 @@
         <v>1149</v>
       </c>
       <c r="C575" s="8" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D575" s="6" t="s">
         <v>1416</v>
-      </c>
-      <c r="D575" s="6" t="s">
-        <v>1417</v>
       </c>
     </row>
     <row r="576" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -12820,10 +12826,10 @@
         <v>1151</v>
       </c>
       <c r="C576" s="8" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D576" s="6" t="s">
         <v>1416</v>
-      </c>
-      <c r="D576" s="6" t="s">
-        <v>1417</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.25">
@@ -12834,10 +12840,10 @@
         <v>1153</v>
       </c>
       <c r="C577" s="8" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D577" s="6" t="s">
         <v>1416</v>
-      </c>
-      <c r="D577" s="6" t="s">
-        <v>1417</v>
       </c>
     </row>
     <row r="578" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -12848,10 +12854,10 @@
         <v>1155</v>
       </c>
       <c r="C578" s="8" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D578" s="6" t="s">
         <v>1416</v>
-      </c>
-      <c r="D578" s="6" t="s">
-        <v>1417</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
@@ -12862,10 +12868,10 @@
         <v>1157</v>
       </c>
       <c r="C579" s="8" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D579" s="6" t="s">
         <v>1418</v>
-      </c>
-      <c r="D579" s="6" t="s">
-        <v>1419</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
@@ -12876,10 +12882,10 @@
         <v>1159</v>
       </c>
       <c r="C580" s="8" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D580" s="6" t="s">
         <v>1418</v>
-      </c>
-      <c r="D580" s="6" t="s">
-        <v>1419</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
@@ -12890,10 +12896,10 @@
         <v>1161</v>
       </c>
       <c r="C581" s="8" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D581" s="6" t="s">
         <v>1418</v>
-      </c>
-      <c r="D581" s="6" t="s">
-        <v>1419</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.25">
@@ -12904,10 +12910,10 @@
         <v>1163</v>
       </c>
       <c r="C582" s="8" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D582" s="6" t="s">
         <v>1418</v>
-      </c>
-      <c r="D582" s="6" t="s">
-        <v>1419</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
@@ -12918,10 +12924,10 @@
         <v>1165</v>
       </c>
       <c r="C583" s="8" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D583" s="6" t="s">
         <v>1420</v>
-      </c>
-      <c r="D583" s="6" t="s">
-        <v>1421</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
@@ -12932,10 +12938,10 @@
         <v>1167</v>
       </c>
       <c r="C584" s="8" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D584" s="6" t="s">
         <v>1420</v>
-      </c>
-      <c r="D584" s="6" t="s">
-        <v>1421</v>
       </c>
     </row>
     <row r="585" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -12946,10 +12952,10 @@
         <v>1169</v>
       </c>
       <c r="C585" s="8" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D585" s="6" t="s">
         <v>1420</v>
-      </c>
-      <c r="D585" s="6" t="s">
-        <v>1421</v>
       </c>
     </row>
     <row r="586" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -12960,10 +12966,10 @@
         <v>1171</v>
       </c>
       <c r="C586" s="8" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D586" s="6" t="s">
         <v>1420</v>
-      </c>
-      <c r="D586" s="6" t="s">
-        <v>1421</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.25">
@@ -12974,10 +12980,10 @@
         <v>1173</v>
       </c>
       <c r="C587" s="8" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D587" s="6" t="s">
         <v>1422</v>
-      </c>
-      <c r="D587" s="6" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
@@ -12988,10 +12994,10 @@
         <v>1175</v>
       </c>
       <c r="C588" s="8" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D588" s="6" t="s">
         <v>1424</v>
-      </c>
-      <c r="D588" s="6" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.25">
@@ -13002,10 +13008,10 @@
         <v>1177</v>
       </c>
       <c r="C589" s="8" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D589" s="6" t="s">
         <v>1424</v>
-      </c>
-      <c r="D589" s="6" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
@@ -13016,10 +13022,10 @@
         <v>1179</v>
       </c>
       <c r="C590" s="8" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D590" s="6" t="s">
         <v>1424</v>
-      </c>
-      <c r="D590" s="6" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
@@ -13030,10 +13036,10 @@
         <v>1181</v>
       </c>
       <c r="C591" s="8" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D591" s="6" t="s">
         <v>1424</v>
-      </c>
-      <c r="D591" s="6" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="592" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -13044,10 +13050,10 @@
         <v>1183</v>
       </c>
       <c r="C592" s="8" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D592" s="6" t="s">
         <v>1424</v>
-      </c>
-      <c r="D592" s="6" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="593" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -13058,10 +13064,10 @@
         <v>1185</v>
       </c>
       <c r="C593" s="8" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D593" s="6" t="s">
         <v>1424</v>
-      </c>
-      <c r="D593" s="6" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="594" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -13072,10 +13078,10 @@
         <v>1187</v>
       </c>
       <c r="C594" s="8" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D594" s="6" t="s">
         <v>1426</v>
-      </c>
-      <c r="D594" s="6" t="s">
-        <v>1427</v>
       </c>
     </row>
     <row r="595" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -13086,10 +13092,10 @@
         <v>1189</v>
       </c>
       <c r="C595" s="8" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D595" s="6" t="s">
         <v>1426</v>
-      </c>
-      <c r="D595" s="6" t="s">
-        <v>1427</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
@@ -13100,10 +13106,10 @@
         <v>1191</v>
       </c>
       <c r="C596" s="8" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D596" s="6" t="s">
         <v>1426</v>
-      </c>
-      <c r="D596" s="6" t="s">
-        <v>1427</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
@@ -13114,10 +13120,10 @@
         <v>1193</v>
       </c>
       <c r="C597" s="8" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D597" s="6" t="s">
         <v>1426</v>
-      </c>
-      <c r="D597" s="6" t="s">
-        <v>1427</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
@@ -13128,10 +13134,10 @@
         <v>1195</v>
       </c>
       <c r="C598" s="8" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D598" s="6" t="s">
         <v>1426</v>
-      </c>
-      <c r="D598" s="6" t="s">
-        <v>1427</v>
       </c>
     </row>
     <row r="599" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -13142,10 +13148,10 @@
         <v>1197</v>
       </c>
       <c r="C599" s="8" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D599" s="6" t="s">
         <v>1426</v>
-      </c>
-      <c r="D599" s="6" t="s">
-        <v>1427</v>
       </c>
     </row>
     <row r="600" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -13156,10 +13162,10 @@
         <v>1199</v>
       </c>
       <c r="C600" s="8" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D600" s="6" t="s">
         <v>1428</v>
-      </c>
-      <c r="D600" s="6" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="601" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -13170,10 +13176,10 @@
         <v>1201</v>
       </c>
       <c r="C601" s="8" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D601" s="6" t="s">
         <v>1428</v>
-      </c>
-      <c r="D601" s="6" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.25">
@@ -13184,10 +13190,10 @@
         <v>1203</v>
       </c>
       <c r="C602" s="8" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D602" s="6" t="s">
         <v>1428</v>
-      </c>
-      <c r="D602" s="6" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="603" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -13198,10 +13204,10 @@
         <v>1205</v>
       </c>
       <c r="C603" s="8" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D603" s="6" t="s">
         <v>1428</v>
-      </c>
-      <c r="D603" s="6" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="604" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -13212,10 +13218,10 @@
         <v>1207</v>
       </c>
       <c r="C604" s="8" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D604" s="6" t="s">
         <v>1428</v>
-      </c>
-      <c r="D604" s="6" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="605" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -13226,10 +13232,10 @@
         <v>1209</v>
       </c>
       <c r="C605" s="8" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D605" s="6" t="s">
         <v>1428</v>
-      </c>
-      <c r="D605" s="6" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="606" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -13240,10 +13246,10 @@
         <v>1211</v>
       </c>
       <c r="C606" s="8" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D606" s="6" t="s">
         <v>1428</v>
-      </c>
-      <c r="D606" s="6" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="607" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -13254,10 +13260,10 @@
         <v>1213</v>
       </c>
       <c r="C607" s="8" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D607" s="6" t="s">
         <v>1428</v>
-      </c>
-      <c r="D607" s="6" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="608" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -13268,10 +13274,10 @@
         <v>1215</v>
       </c>
       <c r="C608" s="8" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D608" s="6" t="s">
         <v>1430</v>
-      </c>
-      <c r="D608" s="6" t="s">
-        <v>1431</v>
       </c>
     </row>
     <row r="609" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -13282,10 +13288,10 @@
         <v>1217</v>
       </c>
       <c r="C609" s="8" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D609" s="6" t="s">
         <v>1430</v>
-      </c>
-      <c r="D609" s="6" t="s">
-        <v>1431</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.25">
@@ -13296,10 +13302,10 @@
         <v>1219</v>
       </c>
       <c r="C610" s="8" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D610" s="6" t="s">
         <v>1430</v>
-      </c>
-      <c r="D610" s="6" t="s">
-        <v>1431</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.25">
@@ -13310,10 +13316,10 @@
         <v>1221</v>
       </c>
       <c r="C611" s="8" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D611" s="6" t="s">
         <v>1430</v>
-      </c>
-      <c r="D611" s="6" t="s">
-        <v>1431</v>
       </c>
     </row>
     <row r="612" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -13324,10 +13330,24 @@
         <v>1223</v>
       </c>
       <c r="C612" s="8" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D612" s="6" t="s">
         <v>1430</v>
       </c>
-      <c r="D612" s="6" t="s">
-        <v>1431</v>
+    </row>
+    <row r="613" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A613" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B613" s="4" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C613" s="8" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D613" s="6" t="s">
+        <v>1430</v>
       </c>
     </row>
   </sheetData>
